--- a/我的创作/股票/技术投资/SEAP交易系统/趋势分析20211209.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/趋势分析20211209.xlsx
@@ -2920,7 +2920,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH79" sqref="AH79"/>
+      <selection pane="bottomRight" activeCell="AA82" sqref="AA82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/趋势分析20211209.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/趋势分析20211209.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <t>股票代码</t>
   </si>
@@ -1409,6 +1409,36 @@
     <t>3w</t>
   </si>
   <si>
+    <r>
+      <t>可以入场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满足普通收缩幅度收窄形态，应寻找有利身位入场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>002810</t>
   </si>
   <si>
@@ -1479,6 +1509,15 @@
   <si>
     <t>新天绿能</t>
   </si>
+  <si>
+    <t>600955</t>
+  </si>
+  <si>
+    <t>维远股份</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
 </sst>
 </file>
 
@@ -1487,9 +1526,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1605,9 +1644,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1626,46 +1680,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1680,17 +1696,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,14 +1729,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,17 +1750,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1769,7 +1808,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1778,13 +1817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,13 +1841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,25 +1853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,13 +1871,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,13 +1913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,7 +1925,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,25 +1955,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,19 +2009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,25 +2021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,8 +2120,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,16 +2136,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2115,30 +2160,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2169,161 +2190,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2372,13 +2417,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2390,70 +2435,70 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,17 +2507,14 @@
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2489,7 +2531,7 @@
     <xf numFmtId="10" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2498,13 +2540,10 @@
     <xf numFmtId="10" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2519,7 +2558,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2534,45 +2573,66 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2966,11 +3026,11 @@
   <dimension ref="A1:AI209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AB78" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z74" sqref="Z74"/>
+      <selection pane="bottomRight" activeCell="Z83" sqref="Z83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -2985,6 +3045,7 @@
     <col min="11" max="11" width="11.5147058823529" customWidth="1"/>
     <col min="12" max="12" width="10.9044117647059" customWidth="1"/>
     <col min="13" max="13" width="13.2352941176471" style="8" customWidth="1"/>
+    <col min="26" max="26" width="7.71323529411765" customWidth="1"/>
     <col min="34" max="34" width="35.4117647058824" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3007,30 +3068,30 @@
       <c r="J1" s="42"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="74" t="s">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3067,34 +3128,34 @@
       <c r="L2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
       <c r="AG2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="75"/>
+      <c r="AH2" s="73"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="14"/>
@@ -3109,38 +3170,38 @@
       <c r="J3" s="46"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63" t="s">
+      <c r="M3" s="61"/>
+      <c r="N3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="63" t="s">
+      <c r="O3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="63" t="s">
+      <c r="P3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="63" t="s">
+      <c r="Q3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="R3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="63" t="s">
+      <c r="S3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="63" t="s">
+      <c r="T3" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="V3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="63" t="s">
+      <c r="W3" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="63" t="s">
+      <c r="X3" s="62" t="s">
         <v>28</v>
       </c>
       <c r="Y3" s="36" t="s">
@@ -3158,7 +3219,7 @@
       <c r="AC3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="71" t="s">
+      <c r="AD3" s="69" t="s">
         <v>34</v>
       </c>
       <c r="AE3" s="36" t="s">
@@ -3167,8 +3228,8 @@
       <c r="AF3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="75"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="73"/>
     </row>
     <row r="4" ht="38" spans="1:34">
       <c r="A4" s="17" t="s">
@@ -3207,7 +3268,7 @@
         <f t="shared" ref="L4:L20" si="1">(I4-G4)/I4</f>
         <v>0.287714285714286</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="63">
         <f t="shared" ref="M4:M37" si="2">(I4-J4)/J4</f>
         <v>0.870657402458578</v>
       </c>
@@ -3231,11 +3292,11 @@
       <c r="Y4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="53">
+      <c r="Z4" s="51">
         <f t="shared" ref="Z4:Z12" si="3">(I4-N4)/I4</f>
         <v>0.346857142857143</v>
       </c>
-      <c r="AA4" s="53">
+      <c r="AA4" s="51">
         <f t="shared" ref="AA4:AA8" si="4">(O4-P4)/O4</f>
         <v>0.160097663062435</v>
       </c>
@@ -3247,11 +3308,11 @@
         <f t="shared" ref="AC4:AC8" si="6">(S4-T4)/S4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="72"/>
+      <c r="AD4" s="70"/>
       <c r="AE4" s="19"/>
       <c r="AF4" s="19"/>
       <c r="AG4" s="38"/>
-      <c r="AH4" s="77" t="s">
+      <c r="AH4" s="75" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3292,7 +3353,7 @@
         <f t="shared" si="1"/>
         <v>0.265970515970516</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="63">
         <f t="shared" si="2"/>
         <v>1.73613445378151</v>
       </c>
@@ -3320,11 +3381,11 @@
       <c r="Y5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="53">
+      <c r="Z5" s="51">
         <f t="shared" si="3"/>
         <v>0.432432432432432</v>
       </c>
-      <c r="AA5" s="53">
+      <c r="AA5" s="51">
         <f t="shared" si="4"/>
         <v>0.244532803180914</v>
       </c>
@@ -3337,7 +3398,7 @@
       <c r="AE5" s="38"/>
       <c r="AF5" s="38"/>
       <c r="AG5" s="38"/>
-      <c r="AH5" s="77" t="s">
+      <c r="AH5" s="75" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3367,18 +3428,18 @@
       <c r="I6" s="23">
         <v>345.99</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="47">
         <v>197.48</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="48">
         <f t="shared" si="0"/>
         <v>6.47986489997402</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="48">
         <f t="shared" si="1"/>
         <v>0.1678950258678</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="64">
         <f t="shared" si="2"/>
         <v>0.752025521571805</v>
       </c>
@@ -3402,27 +3463,27 @@
       <c r="Y6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="55">
+      <c r="Z6" s="51">
         <f t="shared" si="3"/>
         <v>0.240902916269256</v>
       </c>
-      <c r="AA6" s="55">
+      <c r="AA6" s="51">
         <f t="shared" si="4"/>
         <v>0.111036789297659</v>
       </c>
-      <c r="AB6" s="51" t="e">
+      <c r="AB6" s="48" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="51" t="e">
+      <c r="AC6" s="48" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="51"/>
+      <c r="AD6" s="48"/>
       <c r="AE6" s="23"/>
       <c r="AF6" s="23"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="79" t="s">
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="76" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3463,7 +3524,7 @@
         <f t="shared" si="1"/>
         <v>0.0338926547394155</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="63">
         <f t="shared" si="2"/>
         <v>0.583494633116312</v>
       </c>
@@ -3483,7 +3544,7 @@
       <c r="Y7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="53">
+      <c r="Z7" s="51">
         <f t="shared" si="3"/>
         <v>0.0997888654294921</v>
       </c>
@@ -3494,34 +3555,34 @@
       <c r="AE7" s="38"/>
       <c r="AF7" s="38"/>
       <c r="AG7" s="38"/>
-      <c r="AH7" s="77" t="s">
+      <c r="AH7" s="75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="25" spans="1:34">
-      <c r="A8" s="24" t="s">
+    <row r="8" s="1" customFormat="1" ht="25" spans="1:34">
+      <c r="A8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <v>38.63</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <v>44.15</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="23">
         <v>59.89</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23">
         <v>60.42</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <v>7.86</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>81.13</v>
       </c>
       <c r="J8" s="47">
@@ -3535,39 +3596,39 @@
         <f t="shared" si="1"/>
         <v>0.255269320843091</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="64">
         <f t="shared" si="2"/>
         <v>0.922511848341232</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="23">
         <v>54.88</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="23">
         <v>64.91</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="23">
         <v>56.6</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="23">
         <v>63.5</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="23">
         <v>57.1</v>
       </c>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
       <c r="Y8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="Z8" s="53">
+      <c r="Z8" s="51">
         <f t="shared" si="3"/>
         <v>0.323554788610871</v>
       </c>
-      <c r="AA8" s="53">
+      <c r="AA8" s="51">
         <f t="shared" si="4"/>
         <v>0.128023417038977</v>
       </c>
@@ -3580,10 +3641,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD8" s="48"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
       <c r="AG8" s="41"/>
-      <c r="AH8" s="80" t="s">
+      <c r="AH8" s="76" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3624,7 +3685,7 @@
         <f t="shared" si="1"/>
         <v>0.140056818181818</v>
       </c>
-      <c r="M9" s="64">
+      <c r="M9" s="63">
         <f t="shared" si="2"/>
         <v>1.05847953216374</v>
       </c>
@@ -3644,7 +3705,7 @@
       <c r="Y9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Z9" s="53">
+      <c r="Z9" s="51">
         <f t="shared" si="3"/>
         <v>0.167613636363636</v>
       </c>
@@ -3655,7 +3716,7 @@
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
       <c r="AG9" s="38"/>
-      <c r="AH9" s="77" t="s">
+      <c r="AH9" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3696,7 +3757,7 @@
         <f t="shared" si="1"/>
         <v>0.271366405570061</v>
       </c>
-      <c r="M10" s="64">
+      <c r="M10" s="63">
         <f t="shared" si="2"/>
         <v>0.321905200184077</v>
       </c>
@@ -3728,11 +3789,11 @@
       <c r="Y10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Z10" s="53">
+      <c r="Z10" s="51">
         <f t="shared" si="3"/>
         <v>0.419582245430809</v>
       </c>
-      <c r="AA10" s="53">
+      <c r="AA10" s="51">
         <f t="shared" ref="AA10:AA17" si="7">(O10-P10)/O10</f>
         <v>0.0962645601820859</v>
       </c>
@@ -3744,38 +3805,38 @@
         <f>(S10-T10)/S10</f>
         <v>0.141069518716578</v>
       </c>
-      <c r="AD10" s="72"/>
+      <c r="AD10" s="70"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="38"/>
-      <c r="AH10" s="77" t="s">
+      <c r="AH10" s="75" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="38" spans="1:34">
-      <c r="A11" s="24" t="s">
+    <row r="11" s="1" customFormat="1" ht="38" spans="1:34">
+      <c r="A11" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="23">
         <v>26.22</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="23">
         <v>29.2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="23">
         <v>43.92</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23">
         <v>53.52</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="23">
         <v>10.28</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <v>61.58</v>
       </c>
       <c r="J11" s="47">
@@ -3789,31 +3850,31 @@
         <f t="shared" si="1"/>
         <v>0.130886651510231</v>
       </c>
-      <c r="M11" s="66">
+      <c r="M11" s="64">
         <f t="shared" si="2"/>
         <v>2.63518299881936</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="23">
         <v>47.97</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
       <c r="Y11" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="Z11" s="53">
+      <c r="Z11" s="51">
         <f t="shared" si="3"/>
         <v>0.221013316011692</v>
       </c>
-      <c r="AA11" s="53" t="e">
+      <c r="AA11" s="51" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -3821,32 +3882,32 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC11" s="26"/>
+      <c r="AC11" s="23"/>
       <c r="AD11" s="48"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
       <c r="AG11" s="41"/>
-      <c r="AH11" s="80" t="s">
+      <c r="AH11" s="76" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="38" spans="1:34">
-      <c r="A12" s="27" t="s">
+    <row r="12" s="2" customFormat="1" ht="38" spans="1:34">
+      <c r="A12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="26">
         <v>17.38</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="26">
         <v>19.53</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <v>26.83</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="39">
         <v>29.61</v>
       </c>
@@ -3856,18 +3917,18 @@
       <c r="I12" s="39">
         <v>33.99</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="50">
         <v>16.76</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="51">
         <f t="shared" si="0"/>
         <v>3.91860465116279</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="51">
         <f t="shared" si="1"/>
         <v>0.128861429832304</v>
       </c>
-      <c r="M12" s="67">
+      <c r="M12" s="65">
         <f t="shared" si="2"/>
         <v>1.02804295942721</v>
       </c>
@@ -3895,15 +3956,15 @@
       <c r="Y12" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="Z12" s="53">
+      <c r="Z12" s="51">
         <f t="shared" si="3"/>
         <v>0.203883495145631</v>
       </c>
-      <c r="AA12" s="53">
+      <c r="AA12" s="51">
         <f t="shared" si="7"/>
         <v>0.176041349954393</v>
       </c>
-      <c r="AB12" s="53">
+      <c r="AB12" s="51">
         <f t="shared" si="8"/>
         <v>0.132313231323132</v>
       </c>
@@ -3912,7 +3973,7 @@
       <c r="AE12" s="39"/>
       <c r="AF12" s="39"/>
       <c r="AG12" s="39"/>
-      <c r="AH12" s="28" t="s">
+      <c r="AH12" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3945,15 +4006,15 @@
       <c r="J13" s="49">
         <v>5.46</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="51">
         <f t="shared" si="0"/>
         <v>4.02930402930403</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="51">
         <f t="shared" si="1"/>
         <v>0.407295488884092</v>
       </c>
-      <c r="M13" s="67">
+      <c r="M13" s="65">
         <f t="shared" si="2"/>
         <v>7.48534798534798</v>
       </c>
@@ -3969,8 +4030,8 @@
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53" t="e">
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -3983,7 +4044,7 @@
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
       <c r="AG13" s="38"/>
-      <c r="AH13" s="77" t="s">
+      <c r="AH13" s="75" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4016,15 +4077,15 @@
       <c r="J14" s="49">
         <v>20.55</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="51">
         <f t="shared" si="0"/>
         <v>5.6015037593985</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="51">
         <f t="shared" si="1"/>
         <v>0.183559605728101</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="65">
         <f t="shared" si="2"/>
         <v>1.61654501216545</v>
       </c>
@@ -4044,11 +4105,11 @@
       <c r="Y14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="53">
+      <c r="Z14" s="51">
         <f t="shared" ref="Z14:Z29" si="9">(I14-N14)/I14</f>
         <v>0.256090756927655</v>
       </c>
-      <c r="AA14" s="53" t="e">
+      <c r="AA14" s="51" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -4061,7 +4122,7 @@
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
       <c r="AG14" s="38"/>
-      <c r="AH14" s="77" t="s">
+      <c r="AH14" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4080,15 +4141,15 @@
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="49"/>
-      <c r="K15" s="53" t="e">
+      <c r="K15" s="51" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="53" t="e">
+      <c r="L15" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="67" t="e">
+      <c r="M15" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -4104,11 +4165,11 @@
       <c r="W15" s="38"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
-      <c r="Z15" s="53" t="e">
+      <c r="Z15" s="51" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA15" s="53" t="e">
+      <c r="AA15" s="51" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -4121,27 +4182,27 @@
       <c r="AE15" s="38"/>
       <c r="AF15" s="38"/>
       <c r="AG15" s="38"/>
-      <c r="AH15" s="77" t="s">
+      <c r="AH15" s="75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="25" spans="1:34">
-      <c r="A16" s="30" t="s">
+    <row r="16" s="3" customFormat="1" ht="25" spans="1:34">
+      <c r="A16" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>35.16</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="29">
         <v>38.7</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="29">
         <v>46.42</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="40">
         <v>46.67</v>
       </c>
@@ -4151,18 +4212,18 @@
       <c r="I16" s="40">
         <v>54.93</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="52">
         <v>40.37</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="53">
         <f t="shared" si="0"/>
         <v>5.11664482306684</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="53">
         <f t="shared" si="1"/>
         <v>0.150373202257418</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="66">
         <f t="shared" si="2"/>
         <v>0.360663859301462</v>
       </c>
@@ -4186,15 +4247,15 @@
       <c r="Y16" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Z16" s="55">
+      <c r="Z16" s="53">
         <f t="shared" si="9"/>
         <v>0.199890770070999</v>
       </c>
-      <c r="AA16" s="55">
+      <c r="AA16" s="53">
         <f t="shared" si="7"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="AB16" s="51" t="e">
+      <c r="AB16" s="56" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -4203,7 +4264,7 @@
       <c r="AE16" s="40"/>
       <c r="AF16" s="40"/>
       <c r="AG16" s="40"/>
-      <c r="AH16" s="31" t="s">
+      <c r="AH16" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4236,15 +4297,15 @@
       <c r="J17" s="49">
         <v>77</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="51">
         <f t="shared" si="0"/>
         <v>1.06487341772152</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="51">
         <f t="shared" si="1"/>
         <v>0.20240399307324</v>
       </c>
-      <c r="M17" s="67">
+      <c r="M17" s="65">
         <f t="shared" si="2"/>
         <v>0.274935064935065</v>
       </c>
@@ -4272,11 +4333,11 @@
       <c r="Y17" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Z17" s="53">
+      <c r="Z17" s="51">
         <f t="shared" si="9"/>
         <v>0.363349292044413</v>
       </c>
-      <c r="AA17" s="53">
+      <c r="AA17" s="51">
         <f t="shared" si="7"/>
         <v>0.140195959840329</v>
       </c>
@@ -4289,7 +4350,7 @@
       <c r="AE17" s="38"/>
       <c r="AF17" s="38"/>
       <c r="AG17" s="38"/>
-      <c r="AH17" s="77" t="s">
+      <c r="AH17" s="75" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4314,15 +4375,15 @@
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="49"/>
-      <c r="K18" s="53" t="e">
+      <c r="K18" s="51" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="53" t="e">
+      <c r="L18" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="67" t="e">
+      <c r="M18" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -4338,11 +4399,11 @@
       <c r="W18" s="38"/>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
-      <c r="Z18" s="53" t="e">
+      <c r="Z18" s="51" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA18" s="53" t="e">
+      <c r="AA18" s="51" t="e">
         <f t="shared" ref="AA18:AA25" si="10">(O18-P18)/O18</f>
         <v>#DIV/0!</v>
       </c>
@@ -4355,7 +4416,7 @@
       <c r="AE18" s="38"/>
       <c r="AF18" s="38"/>
       <c r="AG18" s="38"/>
-      <c r="AH18" s="77" t="s">
+      <c r="AH18" s="75" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4388,15 +4449,15 @@
       <c r="J19" s="49">
         <v>19.08</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="51">
         <f t="shared" si="0"/>
         <v>2.30537352555701</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="51">
         <f t="shared" si="1"/>
         <v>0.0582524271844661</v>
       </c>
-      <c r="M19" s="67">
+      <c r="M19" s="65">
         <f t="shared" si="2"/>
         <v>0.403563941299791</v>
       </c>
@@ -4416,11 +4477,11 @@
       <c r="Y19" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Z19" s="53">
+      <c r="Z19" s="51">
         <f t="shared" si="9"/>
         <v>0.171023151605676</v>
       </c>
-      <c r="AA19" s="53" t="e">
+      <c r="AA19" s="51" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -4433,7 +4494,7 @@
       <c r="AE19" s="38"/>
       <c r="AF19" s="38"/>
       <c r="AG19" s="38"/>
-      <c r="AH19" s="77" t="s">
+      <c r="AH19" s="75" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4466,15 +4527,15 @@
       <c r="J20" s="49">
         <v>92.03</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="51">
         <f t="shared" si="0"/>
         <v>2.6129546057871</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="51">
         <f t="shared" si="1"/>
         <v>0.0709897610921502</v>
       </c>
-      <c r="M20" s="67">
+      <c r="M20" s="65">
         <f t="shared" si="2"/>
         <v>0.591872215581875</v>
       </c>
@@ -4494,11 +4555,11 @@
       <c r="Y20" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Z20" s="53">
+      <c r="Z20" s="51">
         <f t="shared" si="9"/>
         <v>0.133924914675768</v>
       </c>
-      <c r="AA20" s="53" t="e">
+      <c r="AA20" s="51" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -4511,7 +4572,7 @@
       <c r="AE20" s="38"/>
       <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
-      <c r="AH20" s="77" t="s">
+      <c r="AH20" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4534,7 +4595,7 @@
       <c r="J21" s="49"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="67" t="e">
+      <c r="M21" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -4550,11 +4611,11 @@
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
-      <c r="Z21" s="53" t="e">
+      <c r="Z21" s="51" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA21" s="53" t="e">
+      <c r="AA21" s="51" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -4567,7 +4628,7 @@
       <c r="AE21" s="38"/>
       <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
-      <c r="AH21" s="77" t="s">
+      <c r="AH21" s="75" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4588,7 +4649,7 @@
       <c r="J22" s="49"/>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="67" t="e">
+      <c r="M22" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -4604,11 +4665,11 @@
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
-      <c r="Z22" s="53" t="e">
+      <c r="Z22" s="51" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="53" t="e">
+      <c r="AA22" s="51" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -4621,7 +4682,7 @@
       <c r="AE22" s="38"/>
       <c r="AF22" s="38"/>
       <c r="AG22" s="38"/>
-      <c r="AH22" s="77" t="s">
+      <c r="AH22" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4642,7 +4703,7 @@
       <c r="J23" s="49"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="67" t="e">
+      <c r="M23" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -4658,11 +4719,11 @@
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
-      <c r="Z23" s="53" t="e">
+      <c r="Z23" s="51" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="53" t="e">
+      <c r="AA23" s="51" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -4675,7 +4736,7 @@
       <c r="AE23" s="38"/>
       <c r="AF23" s="38"/>
       <c r="AG23" s="38"/>
-      <c r="AH23" s="77" t="s">
+      <c r="AH23" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4696,7 +4757,7 @@
       <c r="J24" s="49"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
-      <c r="M24" s="67" t="e">
+      <c r="M24" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -4712,11 +4773,11 @@
       <c r="W24" s="38"/>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
-      <c r="Z24" s="53" t="e">
+      <c r="Z24" s="51" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="53" t="e">
+      <c r="AA24" s="51" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -4729,7 +4790,7 @@
       <c r="AE24" s="38"/>
       <c r="AF24" s="38"/>
       <c r="AG24" s="38"/>
-      <c r="AH24" s="77" t="s">
+      <c r="AH24" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4740,26 +4801,26 @@
       <c r="B25" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="23">
         <v>38.23</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="23">
         <v>41.46</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="23">
         <v>49.82</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26">
+      <c r="F25" s="23"/>
+      <c r="G25" s="23">
         <v>52.3</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="23">
         <v>9.87</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="23">
         <v>62.1</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="54">
         <v>33.07</v>
       </c>
       <c r="K25" s="48">
@@ -4770,39 +4831,39 @@
         <f>(I25-G25)/I25</f>
         <v>0.15780998389694</v>
       </c>
-      <c r="M25" s="67">
+      <c r="M25" s="65">
         <f t="shared" si="2"/>
         <v>0.877834895675839</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="23">
         <v>40.92</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="23">
         <v>55</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="23">
         <v>43.54</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="23">
         <v>57.34</v>
       </c>
-      <c r="R25" s="26">
+      <c r="R25" s="23">
         <v>49.81</v>
       </c>
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
       <c r="Y25" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="Z25" s="53">
+      <c r="Z25" s="51">
         <f t="shared" si="9"/>
         <v>0.341062801932367</v>
       </c>
-      <c r="AA25" s="53">
+      <c r="AA25" s="51">
         <f t="shared" si="10"/>
         <v>0.208363636363636</v>
       </c>
@@ -4812,10 +4873,10 @@
       </c>
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="26"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="23"/>
       <c r="AG25" s="38"/>
-      <c r="AH25" s="77" t="s">
+      <c r="AH25" s="75" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4842,7 +4903,7 @@
       <c r="J26" s="49"/>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
-      <c r="M26" s="67" t="e">
+      <c r="M26" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -4858,7 +4919,7 @@
       <c r="W26" s="38"/>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
-      <c r="Z26" s="53" t="e">
+      <c r="Z26" s="51" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -4869,7 +4930,7 @@
       <c r="AE26" s="38"/>
       <c r="AF26" s="38"/>
       <c r="AG26" s="38"/>
-      <c r="AH26" s="77" t="s">
+      <c r="AH26" s="75" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4890,7 +4951,7 @@
       <c r="J27" s="49"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="67" t="e">
+      <c r="M27" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -4906,7 +4967,7 @@
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
-      <c r="Z27" s="53" t="e">
+      <c r="Z27" s="51" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -4917,112 +4978,112 @@
       <c r="AE27" s="38"/>
       <c r="AF27" s="38"/>
       <c r="AG27" s="38"/>
-      <c r="AH27" s="77" t="s">
+      <c r="AH27" s="75" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" ht="25" spans="1:35">
-      <c r="A28" s="21" t="s">
+    <row r="28" s="4" customFormat="1" ht="25" spans="1:35">
+      <c r="A28" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="32">
         <v>11.65</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="32">
         <v>12.71</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="32">
         <v>15.58</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32">
         <v>16.78</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="32">
         <v>4.21</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="32">
         <v>19.7</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="55">
         <v>9.74</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="56">
         <f t="shared" ref="K28:K37" si="12">(G28-H28)/H28</f>
         <v>2.98574821852732</v>
       </c>
-      <c r="L28" s="51">
+      <c r="L28" s="56">
         <f t="shared" ref="L28:L37" si="13">(I28-G28)/I28</f>
         <v>0.148223350253807</v>
       </c>
-      <c r="M28" s="68">
+      <c r="M28" s="66">
         <f t="shared" si="2"/>
         <v>1.02258726899384</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="32">
         <v>14.23</v>
       </c>
-      <c r="O28" s="23">
+      <c r="O28" s="32">
         <v>17.33</v>
       </c>
-      <c r="P28" s="23">
+      <c r="P28" s="32">
         <v>14.91</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="32">
         <v>18.08</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="32">
         <v>15.01</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="32">
         <v>17.19</v>
       </c>
-      <c r="T28" s="23">
+      <c r="T28" s="32">
         <v>15.5</v>
       </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23" t="s">
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="Z28" s="55">
+      <c r="Z28" s="53">
         <f t="shared" si="9"/>
         <v>0.277664974619289</v>
       </c>
-      <c r="AA28" s="51">
+      <c r="AA28" s="56">
         <f>(O28-P28)/O28</f>
         <v>0.139642238892095</v>
       </c>
-      <c r="AB28" s="51">
+      <c r="AB28" s="56">
         <f>(Q28-R28)/Q28</f>
         <v>0.169800884955752</v>
       </c>
-      <c r="AC28" s="51">
+      <c r="AC28" s="56">
         <f>(S28-T28)/S28</f>
         <v>0.0983129726585225</v>
       </c>
-      <c r="AD28" s="51" t="e">
+      <c r="AD28" s="56" t="e">
         <f>(U28-V28)/U28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="79" t="s">
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="AI28" s="81"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="25" spans="1:34">
-      <c r="A29" s="24" t="s">
+      <c r="AI28" s="79"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="25" spans="1:34">
+      <c r="A29" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>113</v>
       </c>
       <c r="C29" s="33">
@@ -5044,7 +5105,7 @@
       <c r="I29" s="41">
         <v>201.3</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="54">
         <v>47.2</v>
       </c>
       <c r="K29" s="48">
@@ -5055,7 +5116,7 @@
         <f t="shared" si="13"/>
         <v>0.26428216592151</v>
       </c>
-      <c r="M29" s="67">
+      <c r="M29" s="65">
         <f t="shared" si="2"/>
         <v>3.26483050847458</v>
       </c>
@@ -5091,7 +5152,7 @@
       <c r="Y29" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Z29" s="53">
+      <c r="Z29" s="51">
         <f t="shared" si="9"/>
         <v>0.443616492796821</v>
       </c>
@@ -5114,7 +5175,7 @@
       <c r="AE29" s="41"/>
       <c r="AF29" s="41"/>
       <c r="AG29" s="41"/>
-      <c r="AH29" s="80" t="s">
+      <c r="AH29" s="76" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5141,7 +5202,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="67" t="e">
+      <c r="M30" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -5157,7 +5218,7 @@
       <c r="W30" s="38"/>
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
-      <c r="Z30" s="53" t="e">
+      <c r="Z30" s="51" t="e">
         <f t="shared" ref="Z30:Z37" si="14">(I30-N30)/I30</f>
         <v>#DIV/0!</v>
       </c>
@@ -5177,7 +5238,7 @@
       <c r="AE30" s="38"/>
       <c r="AF30" s="38"/>
       <c r="AG30" s="38"/>
-      <c r="AH30" s="77" t="s">
+      <c r="AH30" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5212,7 +5273,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="67" t="e">
+      <c r="M31" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -5228,7 +5289,7 @@
       <c r="W31" s="38"/>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
-      <c r="Z31" s="53" t="e">
+      <c r="Z31" s="51" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -5248,7 +5309,7 @@
       <c r="AE31" s="38"/>
       <c r="AF31" s="38"/>
       <c r="AG31" s="38"/>
-      <c r="AH31" s="77" t="s">
+      <c r="AH31" s="75" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5275,7 +5336,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="67" t="e">
+      <c r="M32" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -5291,7 +5352,7 @@
       <c r="W32" s="38"/>
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
-      <c r="Z32" s="53" t="e">
+      <c r="Z32" s="51" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -5311,7 +5372,7 @@
       <c r="AE32" s="38"/>
       <c r="AF32" s="38"/>
       <c r="AG32" s="38"/>
-      <c r="AH32" s="77" t="s">
+      <c r="AH32" s="75" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5338,7 +5399,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="67" t="e">
+      <c r="M33" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -5354,7 +5415,7 @@
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
       <c r="Y33" s="38"/>
-      <c r="Z33" s="53" t="e">
+      <c r="Z33" s="51" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -5374,7 +5435,7 @@
       <c r="AE33" s="38"/>
       <c r="AF33" s="38"/>
       <c r="AG33" s="38"/>
-      <c r="AH33" s="77" t="s">
+      <c r="AH33" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5415,7 +5476,7 @@
         <f t="shared" si="13"/>
         <v>0.150274833137024</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="65">
         <f t="shared" si="2"/>
         <v>0.940201866311179</v>
       </c>
@@ -5433,7 +5494,7 @@
       <c r="Y34" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Z34" s="53">
+      <c r="Z34" s="51">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -5453,7 +5514,7 @@
       <c r="AE34" s="38"/>
       <c r="AF34" s="38"/>
       <c r="AG34" s="38"/>
-      <c r="AH34" s="77" t="s">
+      <c r="AH34" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5480,7 +5541,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="67" t="e">
+      <c r="M35" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -5496,7 +5557,7 @@
       <c r="W35" s="38"/>
       <c r="X35" s="38"/>
       <c r="Y35" s="38"/>
-      <c r="Z35" s="53" t="e">
+      <c r="Z35" s="51" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -5516,7 +5577,7 @@
       <c r="AE35" s="38"/>
       <c r="AF35" s="38"/>
       <c r="AG35" s="38"/>
-      <c r="AH35" s="77" t="s">
+      <c r="AH35" s="75" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5543,7 +5604,7 @@
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="67" t="e">
+      <c r="M36" s="65" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -5559,7 +5620,7 @@
       <c r="W36" s="38"/>
       <c r="X36" s="38"/>
       <c r="Y36" s="38"/>
-      <c r="Z36" s="53" t="e">
+      <c r="Z36" s="51" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -5579,7 +5640,7 @@
       <c r="AE36" s="38"/>
       <c r="AF36" s="38"/>
       <c r="AG36" s="38"/>
-      <c r="AH36" s="77" t="s">
+      <c r="AH36" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5620,7 +5681,7 @@
         <f t="shared" si="13"/>
         <v>0.227561640008382</v>
       </c>
-      <c r="M37" s="67">
+      <c r="M37" s="65">
         <f t="shared" si="2"/>
         <v>1.30844888745566</v>
       </c>
@@ -5644,7 +5705,7 @@
       <c r="Y37" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="Z37" s="53">
+      <c r="Z37" s="51">
         <f t="shared" si="14"/>
         <v>0.380806034783823</v>
       </c>
@@ -5664,7 +5725,7 @@
       <c r="AE37" s="38"/>
       <c r="AF37" s="38"/>
       <c r="AG37" s="38"/>
-      <c r="AH37" s="77" t="s">
+      <c r="AH37" s="75" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5691,7 +5752,7 @@
         <f t="shared" ref="L38:L60" si="19">(I38-G38)/I38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="67" t="e">
+      <c r="M38" s="65" t="e">
         <f t="shared" ref="M38:M47" si="20">(I38-J38)/J38</f>
         <v>#DIV/0!</v>
       </c>
@@ -5724,7 +5785,7 @@
       <c r="AE38" s="38"/>
       <c r="AF38" s="38"/>
       <c r="AG38" s="38"/>
-      <c r="AH38" s="77" t="s">
+      <c r="AH38" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5751,7 +5812,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="67" t="e">
+      <c r="M39" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -5784,7 +5845,7 @@
       <c r="AE39" s="38"/>
       <c r="AF39" s="38"/>
       <c r="AG39" s="38"/>
-      <c r="AH39" s="77" t="s">
+      <c r="AH39" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5811,7 +5872,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="67" t="e">
+      <c r="M40" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -5844,7 +5905,7 @@
       <c r="AE40" s="38"/>
       <c r="AF40" s="38"/>
       <c r="AG40" s="38"/>
-      <c r="AH40" s="77" t="s">
+      <c r="AH40" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5871,7 +5932,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="67" t="e">
+      <c r="M41" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -5904,7 +5965,7 @@
       <c r="AE41" s="38"/>
       <c r="AF41" s="38"/>
       <c r="AG41" s="38"/>
-      <c r="AH41" s="77" t="s">
+      <c r="AH41" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5931,7 +5992,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="67" t="e">
+      <c r="M42" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -5964,7 +6025,7 @@
       <c r="AE42" s="38"/>
       <c r="AF42" s="38"/>
       <c r="AG42" s="38"/>
-      <c r="AH42" s="77" t="s">
+      <c r="AH42" s="75" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5991,7 +6052,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M43" s="67" t="e">
+      <c r="M43" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -6024,7 +6085,7 @@
       <c r="AE43" s="38"/>
       <c r="AF43" s="38"/>
       <c r="AG43" s="38"/>
-      <c r="AH43" s="77" t="s">
+      <c r="AH43" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6051,7 +6112,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="67" t="e">
+      <c r="M44" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -6084,7 +6145,7 @@
       <c r="AE44" s="38"/>
       <c r="AF44" s="38"/>
       <c r="AG44" s="38"/>
-      <c r="AH44" s="77" t="s">
+      <c r="AH44" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6111,7 +6172,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M45" s="67" t="e">
+      <c r="M45" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -6144,7 +6205,7 @@
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
       <c r="AG45" s="38"/>
-      <c r="AH45" s="77" t="s">
+      <c r="AH45" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6171,7 +6232,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="67" t="e">
+      <c r="M46" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -6204,7 +6265,7 @@
       <c r="AE46" s="38"/>
       <c r="AF46" s="38"/>
       <c r="AG46" s="38"/>
-      <c r="AH46" s="77" t="s">
+      <c r="AH46" s="75" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6231,7 +6292,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M47" s="67" t="e">
+      <c r="M47" s="65" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
@@ -6264,7 +6325,7 @@
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
       <c r="AG47" s="38"/>
-      <c r="AH47" s="77" t="s">
+      <c r="AH47" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6291,7 +6352,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M48" s="67" t="e">
+      <c r="M48" s="65" t="e">
         <f t="shared" ref="M48:M60" si="22">(I48-J48)/J48</f>
         <v>#DIV/0!</v>
       </c>
@@ -6324,7 +6385,7 @@
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
       <c r="AG48" s="38"/>
-      <c r="AH48" s="77" t="s">
+      <c r="AH48" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6351,7 +6412,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="67" t="e">
+      <c r="M49" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6384,7 +6445,7 @@
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
       <c r="AG49" s="38"/>
-      <c r="AH49" s="77" t="s">
+      <c r="AH49" s="75" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6411,7 +6472,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M50" s="67" t="e">
+      <c r="M50" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6444,7 +6505,7 @@
       <c r="AE50" s="38"/>
       <c r="AF50" s="38"/>
       <c r="AG50" s="38"/>
-      <c r="AH50" s="77" t="s">
+      <c r="AH50" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6471,7 +6532,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M51" s="67" t="e">
+      <c r="M51" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6504,7 +6565,7 @@
       <c r="AE51" s="38"/>
       <c r="AF51" s="38"/>
       <c r="AG51" s="38"/>
-      <c r="AH51" s="77" t="s">
+      <c r="AH51" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6531,7 +6592,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M52" s="67" t="e">
+      <c r="M52" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6564,7 +6625,7 @@
       <c r="AE52" s="38"/>
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
-      <c r="AH52" s="77" t="s">
+      <c r="AH52" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6591,7 +6652,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M53" s="67" t="e">
+      <c r="M53" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6624,7 +6685,7 @@
       <c r="AE53" s="38"/>
       <c r="AF53" s="38"/>
       <c r="AG53" s="38"/>
-      <c r="AH53" s="77" t="s">
+      <c r="AH53" s="75" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6651,7 +6712,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M54" s="67" t="e">
+      <c r="M54" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6684,7 +6745,7 @@
       <c r="AE54" s="38"/>
       <c r="AF54" s="38"/>
       <c r="AG54" s="38"/>
-      <c r="AH54" s="77" t="s">
+      <c r="AH54" s="75" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6725,7 +6786,7 @@
         <f t="shared" si="19"/>
         <v>0.464495114006515</v>
       </c>
-      <c r="M55" s="67">
+      <c r="M55" s="65">
         <f t="shared" si="22"/>
         <v>5.18951612903226</v>
       </c>
@@ -6758,7 +6819,7 @@
       <c r="AE55" s="38"/>
       <c r="AF55" s="38"/>
       <c r="AG55" s="38"/>
-      <c r="AH55" s="77" t="s">
+      <c r="AH55" s="75" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6785,7 +6846,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" s="67" t="e">
+      <c r="M56" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6818,7 +6879,7 @@
       <c r="AE56" s="38"/>
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
-      <c r="AH56" s="77" t="s">
+      <c r="AH56" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6845,7 +6906,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M57" s="67" t="e">
+      <c r="M57" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6878,7 +6939,7 @@
       <c r="AE57" s="38"/>
       <c r="AF57" s="38"/>
       <c r="AG57" s="38"/>
-      <c r="AH57" s="77" t="s">
+      <c r="AH57" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6905,7 +6966,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M58" s="67" t="e">
+      <c r="M58" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6938,7 +6999,7 @@
       <c r="AE58" s="38"/>
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
-      <c r="AH58" s="77" t="s">
+      <c r="AH58" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6965,7 +7026,7 @@
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M59" s="67" t="e">
+      <c r="M59" s="65" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
@@ -6998,7 +7059,7 @@
       <c r="AE59" s="38"/>
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
-      <c r="AH59" s="77" t="s">
+      <c r="AH59" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7039,7 +7100,7 @@
         <f t="shared" si="19"/>
         <v>0.212567324955117</v>
       </c>
-      <c r="M60" s="67">
+      <c r="M60" s="65">
         <f t="shared" si="22"/>
         <v>2.3273596176822</v>
       </c>
@@ -7067,7 +7128,7 @@
       <c r="Y60" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="Z60" s="53">
+      <c r="Z60" s="51">
         <f t="shared" ref="Z60:Z70" si="23">(I60-N60)/I60</f>
         <v>0.478276481149013</v>
       </c>
@@ -7087,7 +7148,7 @@
       <c r="AE60" s="38"/>
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
-      <c r="AH60" s="77" t="s">
+      <c r="AH60" s="75" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7108,7 +7169,7 @@
       <c r="J61" s="49"/>
       <c r="K61" s="38"/>
       <c r="L61" s="38"/>
-      <c r="M61" s="67" t="e">
+      <c r="M61" s="65" t="e">
         <f t="shared" ref="M61:M70" si="24">(I61-J61)/J61</f>
         <v>#DIV/0!</v>
       </c>
@@ -7124,7 +7185,7 @@
       <c r="W61" s="38"/>
       <c r="X61" s="38"/>
       <c r="Y61" s="38"/>
-      <c r="Z61" s="53" t="e">
+      <c r="Z61" s="51" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -7144,7 +7205,7 @@
       <c r="AE61" s="38"/>
       <c r="AF61" s="38"/>
       <c r="AG61" s="38"/>
-      <c r="AH61" s="77" t="s">
+      <c r="AH61" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7165,7 +7226,7 @@
       <c r="J62" s="49"/>
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
-      <c r="M62" s="67" t="e">
+      <c r="M62" s="65" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
@@ -7181,7 +7242,7 @@
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
       <c r="Y62" s="38"/>
-      <c r="Z62" s="53" t="e">
+      <c r="Z62" s="51" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -7201,7 +7262,7 @@
       <c r="AE62" s="38"/>
       <c r="AF62" s="38"/>
       <c r="AG62" s="38"/>
-      <c r="AH62" s="77" t="s">
+      <c r="AH62" s="75" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7222,7 +7283,7 @@
       <c r="J63" s="49"/>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
-      <c r="M63" s="67" t="e">
+      <c r="M63" s="65" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
@@ -7238,7 +7299,7 @@
       <c r="W63" s="38"/>
       <c r="X63" s="38"/>
       <c r="Y63" s="38"/>
-      <c r="Z63" s="53" t="e">
+      <c r="Z63" s="51" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -7258,7 +7319,7 @@
       <c r="AE63" s="38"/>
       <c r="AF63" s="38"/>
       <c r="AG63" s="38"/>
-      <c r="AH63" s="77" t="s">
+      <c r="AH63" s="75" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7297,7 +7358,7 @@
         <f t="shared" ref="L64:L70" si="27">(I64-G64)/I64</f>
         <v>0.160708534621578</v>
       </c>
-      <c r="M64" s="67" t="e">
+      <c r="M64" s="65" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
@@ -7318,10 +7379,10 @@
       <c r="V64" s="19"/>
       <c r="W64" s="19"/>
       <c r="X64" s="19"/>
-      <c r="Y64" s="69" t="s">
+      <c r="Y64" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="Z64" s="53">
+      <c r="Z64" s="51">
         <f t="shared" si="23"/>
         <v>0.314009661835749</v>
       </c>
@@ -7337,11 +7398,11 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD64" s="72"/>
+      <c r="AD64" s="70"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="38"/>
-      <c r="AH64" s="77" t="s">
+      <c r="AH64" s="75" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7368,7 +7429,7 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M65" s="67" t="e">
+      <c r="M65" s="65" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
@@ -7384,7 +7445,7 @@
       <c r="W65" s="38"/>
       <c r="X65" s="38"/>
       <c r="Y65" s="38"/>
-      <c r="Z65" s="53" t="e">
+      <c r="Z65" s="51" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -7404,7 +7465,7 @@
       <c r="AE65" s="38"/>
       <c r="AF65" s="38"/>
       <c r="AG65" s="38"/>
-      <c r="AH65" s="77" t="s">
+      <c r="AH65" s="75" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7431,7 +7492,7 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M66" s="67" t="e">
+      <c r="M66" s="65" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
@@ -7447,7 +7508,7 @@
       <c r="W66" s="38"/>
       <c r="X66" s="38"/>
       <c r="Y66" s="38"/>
-      <c r="Z66" s="53" t="e">
+      <c r="Z66" s="51" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -7467,7 +7528,7 @@
       <c r="AE66" s="38"/>
       <c r="AF66" s="38"/>
       <c r="AG66" s="38"/>
-      <c r="AH66" s="77" t="s">
+      <c r="AH66" s="75" t="s">
         <v>192</v>
       </c>
     </row>
@@ -7494,7 +7555,7 @@
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M67" s="67" t="e">
+      <c r="M67" s="65" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
@@ -7510,7 +7571,7 @@
       <c r="W67" s="38"/>
       <c r="X67" s="38"/>
       <c r="Y67" s="38"/>
-      <c r="Z67" s="53" t="e">
+      <c r="Z67" s="51" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
@@ -7530,15 +7591,15 @@
       <c r="AE67" s="38"/>
       <c r="AF67" s="38"/>
       <c r="AG67" s="38"/>
-      <c r="AH67" s="77" t="s">
+      <c r="AH67" s="75" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="68" ht="25" spans="1:34">
-      <c r="A68" s="94" t="s">
+      <c r="A68" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="83" t="s">
+      <c r="B68" s="81" t="s">
         <v>197</v>
       </c>
       <c r="C68" s="38">
@@ -7571,7 +7632,7 @@
         <f t="shared" si="27"/>
         <v>0.11328903654485</v>
       </c>
-      <c r="M68" s="67">
+      <c r="M68" s="65">
         <f t="shared" si="24"/>
         <v>0.456921587608906</v>
       </c>
@@ -7595,7 +7656,7 @@
       <c r="Y68" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="Z68" s="53">
+      <c r="Z68" s="51">
         <f t="shared" si="23"/>
         <v>0.270431893687708</v>
       </c>
@@ -7615,80 +7676,80 @@
       <c r="AE68" s="38"/>
       <c r="AF68" s="38"/>
       <c r="AG68" s="38"/>
-      <c r="AH68" s="77" t="s">
+      <c r="AH68" s="75" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" ht="25" spans="1:34">
-      <c r="A69" s="84">
+    <row r="69" s="5" customFormat="1" ht="25" spans="1:34">
+      <c r="A69" s="82">
         <v>603688</v>
       </c>
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="78">
+      <c r="C69" s="77">
         <v>37.35</v>
       </c>
-      <c r="D69" s="78">
+      <c r="D69" s="77">
         <v>41.16</v>
       </c>
-      <c r="E69" s="78">
+      <c r="E69" s="77">
         <v>54.38</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78">
+      <c r="F69" s="77"/>
+      <c r="G69" s="77">
         <v>61.12</v>
       </c>
-      <c r="H69" s="78">
+      <c r="H69" s="77">
         <v>16.19</v>
       </c>
-      <c r="I69" s="78">
+      <c r="I69" s="77">
         <v>66.06</v>
       </c>
-      <c r="J69" s="57">
+      <c r="J69" s="55">
         <v>40.56</v>
       </c>
-      <c r="K69" s="51">
+      <c r="K69" s="56">
         <f t="shared" si="26"/>
         <v>2.775169857937</v>
       </c>
-      <c r="L69" s="51">
+      <c r="L69" s="56">
         <f t="shared" si="27"/>
         <v>0.0747805025734182</v>
       </c>
-      <c r="M69" s="68">
+      <c r="M69" s="66">
         <f t="shared" si="24"/>
         <v>0.628698224852071</v>
       </c>
-      <c r="N69" s="78">
+      <c r="N69" s="77">
         <v>57.2</v>
       </c>
-      <c r="O69" s="78">
+      <c r="O69" s="77">
         <v>62.78</v>
       </c>
-      <c r="P69" s="78">
+      <c r="P69" s="77">
         <v>57.45</v>
       </c>
-      <c r="Q69" s="78">
+      <c r="Q69" s="77">
         <v>64.3</v>
       </c>
-      <c r="R69" s="78">
+      <c r="R69" s="77">
         <v>58.23</v>
       </c>
-      <c r="S69" s="78"/>
-      <c r="T69" s="78"/>
-      <c r="U69" s="78"/>
-      <c r="V69" s="78"/>
-      <c r="W69" s="78"/>
-      <c r="X69" s="78"/>
-      <c r="Y69" s="78" t="s">
+      <c r="S69" s="77"/>
+      <c r="T69" s="77"/>
+      <c r="U69" s="77"/>
+      <c r="V69" s="77"/>
+      <c r="W69" s="77"/>
+      <c r="X69" s="77"/>
+      <c r="Y69" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="Z69" s="55">
+      <c r="Z69" s="53">
         <f t="shared" si="23"/>
         <v>0.134120496518317</v>
       </c>
-      <c r="AA69" s="51">
+      <c r="AA69" s="56">
         <f t="shared" si="21"/>
         <v>0.0848996495699267</v>
       </c>
@@ -7700,92 +7761,92 @@
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD69" s="78"/>
-      <c r="AE69" s="78"/>
-      <c r="AF69" s="78"/>
-      <c r="AG69" s="78"/>
-      <c r="AH69" s="79" t="s">
+      <c r="AD69" s="77"/>
+      <c r="AE69" s="77"/>
+      <c r="AF69" s="77"/>
+      <c r="AG69" s="77"/>
+      <c r="AH69" s="78" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="25" spans="1:34">
-      <c r="A70" s="84">
+    <row r="70" s="5" customFormat="1" ht="25" spans="1:34">
+      <c r="A70" s="82">
         <v>601677</v>
       </c>
-      <c r="B70" s="85" t="s">
+      <c r="B70" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="78">
+      <c r="C70" s="77">
         <v>28.03</v>
       </c>
-      <c r="D70" s="78">
+      <c r="D70" s="77">
         <v>29.91</v>
       </c>
-      <c r="E70" s="78">
+      <c r="E70" s="77">
         <v>34.5</v>
       </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78">
+      <c r="F70" s="77"/>
+      <c r="G70" s="77">
         <v>37.92</v>
       </c>
-      <c r="H70" s="78">
+      <c r="H70" s="77">
         <v>13.18</v>
       </c>
-      <c r="I70" s="78">
+      <c r="I70" s="77">
         <v>41.75</v>
       </c>
-      <c r="J70" s="57">
+      <c r="J70" s="55">
         <v>23.83</v>
       </c>
-      <c r="K70" s="51">
+      <c r="K70" s="56">
         <f t="shared" si="26"/>
         <v>1.87708649468892</v>
       </c>
-      <c r="L70" s="51">
+      <c r="L70" s="56">
         <f t="shared" si="27"/>
         <v>0.0917365269461077</v>
       </c>
-      <c r="M70" s="68">
+      <c r="M70" s="66">
         <f t="shared" si="24"/>
         <v>0.751993285774234</v>
       </c>
-      <c r="N70" s="78">
+      <c r="N70" s="77">
         <v>28.85</v>
       </c>
-      <c r="O70" s="78">
+      <c r="O70" s="77">
         <v>35.46</v>
       </c>
-      <c r="P70" s="78">
+      <c r="P70" s="77">
         <v>29.05</v>
       </c>
-      <c r="Q70" s="78">
+      <c r="Q70" s="77">
         <v>37.66</v>
       </c>
-      <c r="R70" s="78">
+      <c r="R70" s="77">
         <v>35.12</v>
       </c>
-      <c r="S70" s="78">
+      <c r="S70" s="77">
         <v>39.15</v>
       </c>
-      <c r="T70" s="78">
+      <c r="T70" s="77">
         <v>35.91</v>
       </c>
-      <c r="U70" s="78"/>
-      <c r="V70" s="78"/>
-      <c r="W70" s="78"/>
-      <c r="X70" s="78"/>
-      <c r="Y70" s="78" t="s">
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
+      <c r="W70" s="77"/>
+      <c r="X70" s="77"/>
+      <c r="Y70" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="Z70" s="55">
+      <c r="Z70" s="53">
         <f t="shared" si="23"/>
         <v>0.308982035928144</v>
       </c>
-      <c r="AA70" s="51">
+      <c r="AA70" s="56">
         <f t="shared" si="21"/>
         <v>0.180767061477721</v>
       </c>
-      <c r="AB70" s="51">
+      <c r="AB70" s="56">
         <f t="shared" si="25"/>
         <v>0.0674455655868295</v>
       </c>
@@ -7793,62 +7854,62 @@
         <f t="shared" si="17"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="AD70" s="78"/>
-      <c r="AE70" s="78"/>
-      <c r="AF70" s="78"/>
-      <c r="AG70" s="78"/>
-      <c r="AH70" s="79" t="s">
+      <c r="AD70" s="77"/>
+      <c r="AE70" s="77"/>
+      <c r="AF70" s="77"/>
+      <c r="AG70" s="77"/>
+      <c r="AH70" s="78" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:34">
-      <c r="A71" s="86">
+      <c r="A71" s="84">
         <v>600089</v>
       </c>
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
       <c r="J71" s="90"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="92"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="87"/>
-      <c r="S71" s="87"/>
-      <c r="T71" s="87"/>
-      <c r="U71" s="87"/>
-      <c r="V71" s="87"/>
-      <c r="W71" s="87"/>
-      <c r="X71" s="87"/>
-      <c r="Y71" s="87"/>
-      <c r="Z71" s="87"/>
-      <c r="AA71" s="87"/>
-      <c r="AB71" s="87"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="85"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="85"/>
+      <c r="O71" s="85"/>
+      <c r="P71" s="85"/>
+      <c r="Q71" s="85"/>
+      <c r="R71" s="85"/>
+      <c r="S71" s="85"/>
+      <c r="T71" s="85"/>
+      <c r="U71" s="85"/>
+      <c r="V71" s="85"/>
+      <c r="W71" s="85"/>
+      <c r="X71" s="85"/>
+      <c r="Y71" s="85"/>
+      <c r="Z71" s="85"/>
+      <c r="AA71" s="85"/>
+      <c r="AB71" s="85"/>
       <c r="AC71" s="48" t="e">
         <f t="shared" ref="AC71:AC80" si="28">(S71-T71)/S71</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD71" s="87"/>
-      <c r="AE71" s="87"/>
-      <c r="AF71" s="87"/>
-      <c r="AG71" s="87"/>
-      <c r="AH71" s="87"/>
+      <c r="AD71" s="85"/>
+      <c r="AE71" s="85"/>
+      <c r="AF71" s="85"/>
+      <c r="AG71" s="85"/>
+      <c r="AH71" s="85"/>
     </row>
     <row r="72" spans="1:34">
-      <c r="A72" s="86">
+      <c r="A72" s="84">
         <v>605369</v>
       </c>
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="81" t="s">
         <v>201</v>
       </c>
       <c r="C72" s="38"/>
@@ -7861,7 +7922,7 @@
       <c r="J72" s="49"/>
       <c r="K72" s="38"/>
       <c r="L72" s="38"/>
-      <c r="M72" s="64"/>
+      <c r="M72" s="63"/>
       <c r="N72" s="38"/>
       <c r="O72" s="38"/>
       <c r="P72" s="38"/>
@@ -7888,10 +7949,10 @@
       <c r="AH72" s="38"/>
     </row>
     <row r="73" spans="1:34">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="81" t="s">
         <v>203</v>
       </c>
       <c r="C73" s="38"/>
@@ -7904,7 +7965,7 @@
       <c r="J73" s="49"/>
       <c r="K73" s="38"/>
       <c r="L73" s="38"/>
-      <c r="M73" s="64"/>
+      <c r="M73" s="63"/>
       <c r="N73" s="38"/>
       <c r="O73" s="38"/>
       <c r="P73" s="38"/>
@@ -7930,76 +7991,76 @@
       <c r="AG73" s="38"/>
       <c r="AH73" s="38"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="25" spans="1:34">
-      <c r="A74" s="96" t="s">
+    <row r="74" s="5" customFormat="1" ht="25" spans="1:34">
+      <c r="A74" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="85" t="s">
+      <c r="B74" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="C74" s="78">
+      <c r="C74" s="77">
         <v>86.16</v>
       </c>
-      <c r="D74" s="78">
+      <c r="D74" s="77">
         <v>91.38</v>
       </c>
-      <c r="E74" s="78">
+      <c r="E74" s="77">
         <v>108.56</v>
       </c>
-      <c r="F74" s="78"/>
-      <c r="G74" s="78">
+      <c r="F74" s="77"/>
+      <c r="G74" s="77">
         <v>117.87</v>
       </c>
-      <c r="H74" s="78">
+      <c r="H74" s="77">
         <v>45.36</v>
       </c>
-      <c r="I74" s="78">
+      <c r="I74" s="77">
         <v>125.2</v>
       </c>
-      <c r="J74" s="57">
+      <c r="J74" s="55">
         <v>91.38</v>
       </c>
-      <c r="K74" s="51">
+      <c r="K74" s="56">
         <f t="shared" ref="K74:K80" si="29">(G74-H74)/H74</f>
         <v>1.59854497354497</v>
       </c>
-      <c r="L74" s="51">
+      <c r="L74" s="56">
         <f t="shared" ref="L74:L80" si="30">(I74-G74)/I74</f>
         <v>0.0585463258785942</v>
       </c>
-      <c r="M74" s="68">
+      <c r="M74" s="66">
         <f t="shared" ref="M74:M80" si="31">(I74-J74)/J74</f>
         <v>0.370102867148173</v>
       </c>
-      <c r="N74" s="78">
+      <c r="N74" s="77">
         <v>106.9</v>
       </c>
-      <c r="O74" s="78">
+      <c r="O74" s="77">
         <v>121.03</v>
       </c>
-      <c r="P74" s="78">
+      <c r="P74" s="77">
         <v>110.4</v>
       </c>
-      <c r="Q74" s="78"/>
-      <c r="R74" s="78"/>
-      <c r="S74" s="78"/>
-      <c r="T74" s="78"/>
-      <c r="U74" s="78"/>
-      <c r="V74" s="78"/>
-      <c r="W74" s="78"/>
-      <c r="X74" s="78"/>
-      <c r="Y74" s="78" t="s">
+      <c r="Q74" s="77"/>
+      <c r="R74" s="77"/>
+      <c r="S74" s="77"/>
+      <c r="T74" s="77"/>
+      <c r="U74" s="77"/>
+      <c r="V74" s="77"/>
+      <c r="W74" s="77"/>
+      <c r="X74" s="77"/>
+      <c r="Y74" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="Z74" s="55">
+      <c r="Z74" s="53">
         <f t="shared" ref="Z74:Z80" si="32">(I74-N74)/I74</f>
         <v>0.146166134185303</v>
       </c>
-      <c r="AA74" s="51">
+      <c r="AA74" s="56">
         <f t="shared" ref="AA74:AA80" si="33">(O74-P74)/O74</f>
         <v>0.0878294637693134</v>
       </c>
-      <c r="AB74" s="51" t="e">
+      <c r="AB74" s="56" t="e">
         <f t="shared" ref="AB74:AB80" si="34">(Q74-R74)/Q74</f>
         <v>#DIV/0!</v>
       </c>
@@ -8007,20 +8068,20 @@
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD74" s="78"/>
-      <c r="AE74" s="78"/>
-      <c r="AF74" s="78"/>
-      <c r="AG74" s="78"/>
-      <c r="AH74" s="79" t="s">
-        <v>111</v>
+      <c r="AD74" s="77"/>
+      <c r="AE74" s="77"/>
+      <c r="AF74" s="77"/>
+      <c r="AG74" s="77"/>
+      <c r="AH74" s="78" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="75" ht="25" spans="1:34">
-      <c r="A75" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="B75" s="83" t="s">
+      <c r="A75" s="100" t="s">
         <v>208</v>
+      </c>
+      <c r="B75" s="81" t="s">
+        <v>209</v>
       </c>
       <c r="C75" s="41"/>
       <c r="D75" s="41"/>
@@ -8029,7 +8090,7 @@
       <c r="G75" s="41"/>
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
-      <c r="J75" s="56"/>
+      <c r="J75" s="54"/>
       <c r="K75" s="48" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -8038,7 +8099,7 @@
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M75" s="67" t="e">
+      <c r="M75" s="65" t="e">
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
@@ -8054,7 +8115,7 @@
       <c r="W75" s="41"/>
       <c r="X75" s="41"/>
       <c r="Y75" s="41"/>
-      <c r="Z75" s="53" t="e">
+      <c r="Z75" s="51" t="e">
         <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
@@ -8074,16 +8135,16 @@
       <c r="AE75" s="38"/>
       <c r="AF75" s="38"/>
       <c r="AG75" s="38"/>
-      <c r="AH75" s="77" t="s">
+      <c r="AH75" s="75" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="76" ht="25" spans="1:34">
-      <c r="A76" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="83" t="s">
+      <c r="A76" s="100" t="s">
         <v>210</v>
+      </c>
+      <c r="B76" s="81" t="s">
+        <v>211</v>
       </c>
       <c r="C76" s="41">
         <v>13.54</v>
@@ -8104,7 +8165,7 @@
       <c r="I76" s="41">
         <v>23.67</v>
       </c>
-      <c r="J76" s="56">
+      <c r="J76" s="54">
         <v>14.43</v>
       </c>
       <c r="K76" s="48">
@@ -8115,7 +8176,7 @@
         <f t="shared" si="30"/>
         <v>0.174059991550486</v>
       </c>
-      <c r="M76" s="67">
+      <c r="M76" s="65">
         <f t="shared" si="31"/>
         <v>0.64033264033264</v>
       </c>
@@ -8139,7 +8200,7 @@
       <c r="Y76" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="Z76" s="53">
+      <c r="Z76" s="51">
         <f t="shared" si="32"/>
         <v>0.240388677651035</v>
       </c>
@@ -8159,16 +8220,16 @@
       <c r="AE76" s="38"/>
       <c r="AF76" s="38"/>
       <c r="AG76" s="38"/>
-      <c r="AH76" s="77" t="s">
+      <c r="AH76" s="75" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="77" ht="38" spans="1:34">
-      <c r="A77" s="86">
+      <c r="A77" s="84">
         <v>600392</v>
       </c>
-      <c r="B77" s="83" t="s">
-        <v>211</v>
+      <c r="B77" s="81" t="s">
+        <v>212</v>
       </c>
       <c r="C77" s="38">
         <v>21.01</v>
@@ -8200,7 +8261,7 @@
         <f t="shared" si="30"/>
         <v>0.268784153005464</v>
       </c>
-      <c r="M77" s="67">
+      <c r="M77" s="65">
         <f t="shared" si="31"/>
         <v>0.7501494321578</v>
       </c>
@@ -8216,7 +8277,7 @@
       <c r="W77" s="38"/>
       <c r="X77" s="38"/>
       <c r="Y77" s="38"/>
-      <c r="Z77" s="53">
+      <c r="Z77" s="51">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
@@ -8236,16 +8297,16 @@
       <c r="AE77" s="38"/>
       <c r="AF77" s="38"/>
       <c r="AG77" s="38"/>
-      <c r="AH77" s="77" t="s">
-        <v>212</v>
+      <c r="AH77" s="75" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="78" ht="25" spans="1:34">
-      <c r="A78" s="86">
+      <c r="A78" s="84">
         <v>601016</v>
       </c>
-      <c r="B78" s="83" t="s">
-        <v>213</v>
+      <c r="B78" s="81" t="s">
+        <v>214</v>
       </c>
       <c r="C78" s="38">
         <v>5.14</v>
@@ -8277,7 +8338,7 @@
         <f t="shared" si="30"/>
         <v>0.179141104294479</v>
       </c>
-      <c r="M78" s="67">
+      <c r="M78" s="65">
         <f t="shared" si="31"/>
         <v>0.856492027334852</v>
       </c>
@@ -8305,7 +8366,7 @@
       <c r="Y78" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="Z78" s="53">
+      <c r="Z78" s="51">
         <f t="shared" si="32"/>
         <v>0.263803680981595</v>
       </c>
@@ -8325,16 +8386,16 @@
       <c r="AE78" s="38"/>
       <c r="AF78" s="38"/>
       <c r="AG78" s="38"/>
-      <c r="AH78" s="77" t="s">
+      <c r="AH78" s="75" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="79" ht="25" spans="1:34">
-      <c r="A79" s="86">
+      <c r="A79" s="84">
         <v>600821</v>
       </c>
-      <c r="B79" s="83" t="s">
-        <v>214</v>
+      <c r="B79" s="81" t="s">
+        <v>215</v>
       </c>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
@@ -8360,7 +8421,7 @@
         <f t="shared" si="30"/>
         <v>0.158646616541353</v>
       </c>
-      <c r="M79" s="67">
+      <c r="M79" s="65">
         <f t="shared" si="31"/>
         <v>1.37076648841355</v>
       </c>
@@ -8388,7 +8449,7 @@
       <c r="Y79" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Z79" s="53">
+      <c r="Z79" s="51">
         <f t="shared" si="32"/>
         <v>0.313533834586466</v>
       </c>
@@ -8408,16 +8469,16 @@
       <c r="AE79" s="38"/>
       <c r="AF79" s="38"/>
       <c r="AG79" s="38"/>
-      <c r="AH79" s="77" t="s">
+      <c r="AH79" s="75" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="80" ht="25" spans="1:34">
-      <c r="A80" s="95" t="s">
-        <v>215</v>
-      </c>
-      <c r="B80" s="83" t="s">
+      <c r="A80" s="100" t="s">
         <v>216</v>
+      </c>
+      <c r="B80" s="81" t="s">
+        <v>217</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
@@ -8443,7 +8504,7 @@
         <f t="shared" si="30"/>
         <v>0.111593059936908</v>
       </c>
-      <c r="M80" s="67">
+      <c r="M80" s="65">
         <f t="shared" si="31"/>
         <v>0.543048372376027</v>
       </c>
@@ -8471,7 +8532,7 @@
       <c r="Y80" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Z80" s="53">
+      <c r="Z80" s="51">
         <f t="shared" si="32"/>
         <v>0.221608832807571</v>
       </c>
@@ -8491,16 +8552,16 @@
       <c r="AE80" s="38"/>
       <c r="AF80" s="38"/>
       <c r="AG80" s="38"/>
-      <c r="AH80" s="77" t="s">
+      <c r="AH80" s="75" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="81" ht="25" spans="1:34">
-      <c r="A81" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81" s="83" t="s">
+      <c r="A81" s="100" t="s">
         <v>218</v>
+      </c>
+      <c r="B81" s="81" t="s">
+        <v>219</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
@@ -8512,7 +8573,10 @@
       <c r="J81" s="49"/>
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
-      <c r="M81" s="64"/>
+      <c r="M81" s="65" t="e">
+        <f>(I81-J81)/J81</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N81" s="38"/>
       <c r="O81" s="38"/>
       <c r="P81" s="38"/>
@@ -8525,24 +8589,36 @@
       <c r="W81" s="38"/>
       <c r="X81" s="38"/>
       <c r="Y81" s="38"/>
-      <c r="Z81" s="38"/>
-      <c r="AA81" s="38"/>
-      <c r="AB81" s="38"/>
-      <c r="AC81" s="38"/>
+      <c r="Z81" s="51" t="e">
+        <f>(I81-N81)/I81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA81" s="48" t="e">
+        <f>(O81-P81)/O81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB81" s="48" t="e">
+        <f>(Q81-R81)/Q81</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC81" s="48" t="e">
+        <f>(S81-T81)/S81</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD81" s="38"/>
       <c r="AE81" s="38"/>
       <c r="AF81" s="38"/>
       <c r="AG81" s="38"/>
-      <c r="AH81" s="77" t="s">
+      <c r="AH81" s="75" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="82" ht="25" spans="1:34">
-      <c r="A82" s="86">
+      <c r="A82" s="84">
         <v>600956</v>
       </c>
-      <c r="B82" s="83" t="s">
-        <v>219</v>
+      <c r="B82" s="81" t="s">
+        <v>220</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
@@ -8554,7 +8630,10 @@
       <c r="J82" s="49"/>
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
-      <c r="M82" s="64"/>
+      <c r="M82" s="65" t="e">
+        <f>(I82-J82)/J82</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N82" s="38"/>
       <c r="O82" s="38"/>
       <c r="P82" s="38"/>
@@ -8567,53 +8646,127 @@
       <c r="W82" s="38"/>
       <c r="X82" s="38"/>
       <c r="Y82" s="38"/>
-      <c r="Z82" s="38"/>
-      <c r="AA82" s="38"/>
-      <c r="AB82" s="38"/>
-      <c r="AC82" s="38"/>
+      <c r="Z82" s="51" t="e">
+        <f>(I82-N82)/I82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA82" s="48" t="e">
+        <f>(O82-P82)/O82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB82" s="48" t="e">
+        <f>(Q82-R82)/Q82</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC82" s="48" t="e">
+        <f>(S82-T82)/S82</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AD82" s="38"/>
       <c r="AE82" s="38"/>
       <c r="AF82" s="38"/>
       <c r="AG82" s="38"/>
-      <c r="AH82" s="77" t="s">
+      <c r="AH82" s="75" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
-      <c r="A83" s="88"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="89"/>
-      <c r="H83" s="89"/>
-      <c r="I83" s="89"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="89"/>
-      <c r="L83" s="89"/>
-      <c r="M83" s="93"/>
-      <c r="N83" s="89"/>
-      <c r="O83" s="89"/>
-      <c r="P83" s="89"/>
-      <c r="Q83" s="89"/>
-      <c r="R83" s="89"/>
-      <c r="S83" s="89"/>
-      <c r="T83" s="89"/>
-      <c r="U83" s="89"/>
-      <c r="V83" s="89"/>
-      <c r="W83" s="89"/>
-      <c r="X83" s="89"/>
-      <c r="Y83" s="89"/>
-      <c r="Z83" s="89"/>
-      <c r="AA83" s="89"/>
-      <c r="AB83" s="89"/>
-      <c r="AC83" s="89"/>
-      <c r="AD83" s="89"/>
-      <c r="AE83" s="89"/>
-      <c r="AF83" s="89"/>
-      <c r="AG83" s="89"/>
-      <c r="AH83" s="89"/>
+    <row r="83" ht="25" spans="1:34">
+      <c r="A83" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="23">
+        <v>44.31</v>
+      </c>
+      <c r="D83" s="23">
+        <v>44.7</v>
+      </c>
+      <c r="E83" s="23">
+        <v>46.27</v>
+      </c>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23">
+        <v>47.76</v>
+      </c>
+      <c r="H83" s="23">
+        <v>35.47</v>
+      </c>
+      <c r="I83" s="23">
+        <v>61.98</v>
+      </c>
+      <c r="J83" s="91">
+        <v>35.47</v>
+      </c>
+      <c r="K83" s="92">
+        <f>(G83-H83)/H83</f>
+        <v>0.346489991542148</v>
+      </c>
+      <c r="L83" s="92">
+        <f>(I83-G83)/I83</f>
+        <v>0.229428848015489</v>
+      </c>
+      <c r="M83" s="65">
+        <f>(I83-J83)/J83</f>
+        <v>0.747392162390753</v>
+      </c>
+      <c r="N83" s="23">
+        <v>42.05</v>
+      </c>
+      <c r="O83" s="23">
+        <v>52.97</v>
+      </c>
+      <c r="P83" s="23">
+        <v>42.18</v>
+      </c>
+      <c r="Q83" s="23">
+        <v>50.93</v>
+      </c>
+      <c r="R83" s="23">
+        <v>46.13</v>
+      </c>
+      <c r="S83" s="96">
+        <v>49.4</v>
+      </c>
+      <c r="T83" s="96">
+        <v>46.7</v>
+      </c>
+      <c r="U83" s="23"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z83" s="51">
+        <f>(I83-N83)/I83</f>
+        <v>0.321555340432398</v>
+      </c>
+      <c r="AA83" s="48">
+        <f>(O83-P83)/O83</f>
+        <v>0.203700207664716</v>
+      </c>
+      <c r="AB83" s="48">
+        <f>(Q83-R83)/Q83</f>
+        <v>0.0942470056940899</v>
+      </c>
+      <c r="AC83" s="48">
+        <f>(S83-T83)/S83</f>
+        <v>0.054655870445344</v>
+      </c>
+      <c r="AD83" s="48" t="e">
+        <f>(U83-V83)/U83</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE83" s="23"/>
+      <c r="AF83" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG83" s="97"/>
+      <c r="AH83" s="98" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="84" spans="1:34">
       <c r="A84" s="88"/>
@@ -8625,10 +8778,10 @@
       <c r="G84" s="89"/>
       <c r="H84" s="89"/>
       <c r="I84" s="89"/>
-      <c r="J84" s="91"/>
+      <c r="J84" s="93"/>
       <c r="K84" s="89"/>
       <c r="L84" s="89"/>
-      <c r="M84" s="93"/>
+      <c r="M84" s="95"/>
       <c r="N84" s="89"/>
       <c r="O84" s="89"/>
       <c r="P84" s="89"/>
@@ -8661,10 +8814,10 @@
       <c r="G85" s="89"/>
       <c r="H85" s="89"/>
       <c r="I85" s="89"/>
-      <c r="J85" s="91"/>
+      <c r="J85" s="93"/>
       <c r="K85" s="89"/>
       <c r="L85" s="89"/>
-      <c r="M85" s="93"/>
+      <c r="M85" s="95"/>
       <c r="N85" s="89"/>
       <c r="O85" s="89"/>
       <c r="P85" s="89"/>
@@ -8697,10 +8850,10 @@
       <c r="G86" s="89"/>
       <c r="H86" s="89"/>
       <c r="I86" s="89"/>
-      <c r="J86" s="91"/>
+      <c r="J86" s="93"/>
       <c r="K86" s="89"/>
       <c r="L86" s="89"/>
-      <c r="M86" s="93"/>
+      <c r="M86" s="95"/>
       <c r="N86" s="89"/>
       <c r="O86" s="89"/>
       <c r="P86" s="89"/>
@@ -8733,10 +8886,10 @@
       <c r="G87" s="89"/>
       <c r="H87" s="89"/>
       <c r="I87" s="89"/>
-      <c r="J87" s="91"/>
+      <c r="J87" s="93"/>
       <c r="K87" s="89"/>
       <c r="L87" s="89"/>
-      <c r="M87" s="93"/>
+      <c r="M87" s="95"/>
       <c r="N87" s="89"/>
       <c r="O87" s="89"/>
       <c r="P87" s="89"/>
@@ -8769,10 +8922,10 @@
       <c r="G88" s="89"/>
       <c r="H88" s="89"/>
       <c r="I88" s="89"/>
-      <c r="J88" s="91"/>
+      <c r="J88" s="93"/>
       <c r="K88" s="89"/>
       <c r="L88" s="89"/>
-      <c r="M88" s="93"/>
+      <c r="M88" s="95"/>
       <c r="N88" s="89"/>
       <c r="O88" s="89"/>
       <c r="P88" s="89"/>
@@ -8805,10 +8958,10 @@
       <c r="G89" s="89"/>
       <c r="H89" s="89"/>
       <c r="I89" s="89"/>
-      <c r="J89" s="91"/>
+      <c r="J89" s="93"/>
       <c r="K89" s="89"/>
       <c r="L89" s="89"/>
-      <c r="M89" s="93"/>
+      <c r="M89" s="95"/>
       <c r="N89" s="89"/>
       <c r="O89" s="89"/>
       <c r="P89" s="89"/>
@@ -8841,10 +8994,10 @@
       <c r="G90" s="89"/>
       <c r="H90" s="89"/>
       <c r="I90" s="89"/>
-      <c r="J90" s="91"/>
+      <c r="J90" s="93"/>
       <c r="K90" s="89"/>
       <c r="L90" s="89"/>
-      <c r="M90" s="93"/>
+      <c r="M90" s="95"/>
       <c r="N90" s="89"/>
       <c r="O90" s="89"/>
       <c r="P90" s="89"/>
@@ -8877,10 +9030,10 @@
       <c r="G91" s="89"/>
       <c r="H91" s="89"/>
       <c r="I91" s="89"/>
-      <c r="J91" s="91"/>
+      <c r="J91" s="93"/>
       <c r="K91" s="89"/>
       <c r="L91" s="89"/>
-      <c r="M91" s="93"/>
+      <c r="M91" s="95"/>
       <c r="N91" s="89"/>
       <c r="O91" s="89"/>
       <c r="P91" s="89"/>
@@ -8913,10 +9066,10 @@
       <c r="G92" s="89"/>
       <c r="H92" s="89"/>
       <c r="I92" s="89"/>
-      <c r="J92" s="91"/>
+      <c r="J92" s="93"/>
       <c r="K92" s="89"/>
       <c r="L92" s="89"/>
-      <c r="M92" s="93"/>
+      <c r="M92" s="95"/>
       <c r="N92" s="89"/>
       <c r="O92" s="89"/>
       <c r="P92" s="89"/>
@@ -8949,10 +9102,10 @@
       <c r="G93" s="89"/>
       <c r="H93" s="89"/>
       <c r="I93" s="89"/>
-      <c r="J93" s="91"/>
+      <c r="J93" s="93"/>
       <c r="K93" s="89"/>
       <c r="L93" s="89"/>
-      <c r="M93" s="93"/>
+      <c r="M93" s="95"/>
       <c r="N93" s="89"/>
       <c r="O93" s="89"/>
       <c r="P93" s="89"/>
@@ -8985,10 +9138,10 @@
       <c r="G94" s="89"/>
       <c r="H94" s="89"/>
       <c r="I94" s="89"/>
-      <c r="J94" s="91"/>
+      <c r="J94" s="93"/>
       <c r="K94" s="89"/>
       <c r="L94" s="89"/>
-      <c r="M94" s="93"/>
+      <c r="M94" s="95"/>
       <c r="N94" s="89"/>
       <c r="O94" s="89"/>
       <c r="P94" s="89"/>
@@ -9021,10 +9174,10 @@
       <c r="G95" s="89"/>
       <c r="H95" s="89"/>
       <c r="I95" s="89"/>
-      <c r="J95" s="91"/>
+      <c r="J95" s="93"/>
       <c r="K95" s="89"/>
       <c r="L95" s="89"/>
-      <c r="M95" s="93"/>
+      <c r="M95" s="95"/>
       <c r="N95" s="89"/>
       <c r="O95" s="89"/>
       <c r="P95" s="89"/>
@@ -9057,10 +9210,10 @@
       <c r="G96" s="89"/>
       <c r="H96" s="89"/>
       <c r="I96" s="89"/>
-      <c r="J96" s="91"/>
+      <c r="J96" s="93"/>
       <c r="K96" s="89"/>
       <c r="L96" s="89"/>
-      <c r="M96" s="93"/>
+      <c r="M96" s="95"/>
       <c r="N96" s="89"/>
       <c r="O96" s="89"/>
       <c r="P96" s="89"/>
@@ -9093,10 +9246,10 @@
       <c r="G97" s="89"/>
       <c r="H97" s="89"/>
       <c r="I97" s="89"/>
-      <c r="J97" s="91"/>
+      <c r="J97" s="93"/>
       <c r="K97" s="89"/>
       <c r="L97" s="89"/>
-      <c r="M97" s="93"/>
+      <c r="M97" s="95"/>
       <c r="N97" s="89"/>
       <c r="O97" s="89"/>
       <c r="P97" s="89"/>
@@ -9129,10 +9282,10 @@
       <c r="G98" s="89"/>
       <c r="H98" s="89"/>
       <c r="I98" s="89"/>
-      <c r="J98" s="91"/>
+      <c r="J98" s="93"/>
       <c r="K98" s="89"/>
       <c r="L98" s="89"/>
-      <c r="M98" s="93"/>
+      <c r="M98" s="95"/>
       <c r="N98" s="89"/>
       <c r="O98" s="89"/>
       <c r="P98" s="89"/>
@@ -9165,10 +9318,10 @@
       <c r="G99" s="89"/>
       <c r="H99" s="89"/>
       <c r="I99" s="89"/>
-      <c r="J99" s="91"/>
+      <c r="J99" s="93"/>
       <c r="K99" s="89"/>
       <c r="L99" s="89"/>
-      <c r="M99" s="93"/>
+      <c r="M99" s="95"/>
       <c r="N99" s="89"/>
       <c r="O99" s="89"/>
       <c r="P99" s="89"/>
@@ -9201,10 +9354,10 @@
       <c r="G100" s="89"/>
       <c r="H100" s="89"/>
       <c r="I100" s="89"/>
-      <c r="J100" s="91"/>
+      <c r="J100" s="93"/>
       <c r="K100" s="89"/>
       <c r="L100" s="89"/>
-      <c r="M100" s="93"/>
+      <c r="M100" s="95"/>
       <c r="N100" s="89"/>
       <c r="O100" s="89"/>
       <c r="P100" s="89"/>
@@ -9237,10 +9390,10 @@
       <c r="G101" s="89"/>
       <c r="H101" s="89"/>
       <c r="I101" s="89"/>
-      <c r="J101" s="91"/>
+      <c r="J101" s="93"/>
       <c r="K101" s="89"/>
       <c r="L101" s="89"/>
-      <c r="M101" s="93"/>
+      <c r="M101" s="95"/>
       <c r="N101" s="89"/>
       <c r="O101" s="89"/>
       <c r="P101" s="89"/>
@@ -9273,10 +9426,10 @@
       <c r="G102" s="89"/>
       <c r="H102" s="89"/>
       <c r="I102" s="89"/>
-      <c r="J102" s="91"/>
+      <c r="J102" s="93"/>
       <c r="K102" s="89"/>
       <c r="L102" s="89"/>
-      <c r="M102" s="93"/>
+      <c r="M102" s="95"/>
       <c r="N102" s="89"/>
       <c r="O102" s="89"/>
       <c r="P102" s="89"/>
@@ -9309,10 +9462,10 @@
       <c r="G103" s="89"/>
       <c r="H103" s="89"/>
       <c r="I103" s="89"/>
-      <c r="J103" s="91"/>
+      <c r="J103" s="93"/>
       <c r="K103" s="89"/>
       <c r="L103" s="89"/>
-      <c r="M103" s="93"/>
+      <c r="M103" s="95"/>
       <c r="N103" s="89"/>
       <c r="O103" s="89"/>
       <c r="P103" s="89"/>
@@ -9345,10 +9498,10 @@
       <c r="G104" s="89"/>
       <c r="H104" s="89"/>
       <c r="I104" s="89"/>
-      <c r="J104" s="91"/>
+      <c r="J104" s="93"/>
       <c r="K104" s="89"/>
       <c r="L104" s="89"/>
-      <c r="M104" s="93"/>
+      <c r="M104" s="95"/>
       <c r="N104" s="89"/>
       <c r="O104" s="89"/>
       <c r="P104" s="89"/>
@@ -9381,10 +9534,10 @@
       <c r="G105" s="89"/>
       <c r="H105" s="89"/>
       <c r="I105" s="89"/>
-      <c r="J105" s="91"/>
+      <c r="J105" s="93"/>
       <c r="K105" s="89"/>
       <c r="L105" s="89"/>
-      <c r="M105" s="93"/>
+      <c r="M105" s="95"/>
       <c r="N105" s="89"/>
       <c r="O105" s="89"/>
       <c r="P105" s="89"/>
@@ -9417,10 +9570,10 @@
       <c r="G106" s="89"/>
       <c r="H106" s="89"/>
       <c r="I106" s="89"/>
-      <c r="J106" s="91"/>
+      <c r="J106" s="93"/>
       <c r="K106" s="89"/>
       <c r="L106" s="89"/>
-      <c r="M106" s="93"/>
+      <c r="M106" s="95"/>
       <c r="N106" s="89"/>
       <c r="O106" s="89"/>
       <c r="P106" s="89"/>
@@ -9453,10 +9606,10 @@
       <c r="G107" s="89"/>
       <c r="H107" s="89"/>
       <c r="I107" s="89"/>
-      <c r="J107" s="91"/>
+      <c r="J107" s="93"/>
       <c r="K107" s="89"/>
       <c r="L107" s="89"/>
-      <c r="M107" s="93"/>
+      <c r="M107" s="95"/>
       <c r="N107" s="89"/>
       <c r="O107" s="89"/>
       <c r="P107" s="89"/>
@@ -9489,10 +9642,10 @@
       <c r="G108" s="89"/>
       <c r="H108" s="89"/>
       <c r="I108" s="89"/>
-      <c r="J108" s="91"/>
+      <c r="J108" s="93"/>
       <c r="K108" s="89"/>
       <c r="L108" s="89"/>
-      <c r="M108" s="93"/>
+      <c r="M108" s="95"/>
       <c r="N108" s="89"/>
       <c r="O108" s="89"/>
       <c r="P108" s="89"/>
@@ -9525,10 +9678,10 @@
       <c r="G109" s="89"/>
       <c r="H109" s="89"/>
       <c r="I109" s="89"/>
-      <c r="J109" s="91"/>
+      <c r="J109" s="93"/>
       <c r="K109" s="89"/>
       <c r="L109" s="89"/>
-      <c r="M109" s="93"/>
+      <c r="M109" s="95"/>
       <c r="N109" s="89"/>
       <c r="O109" s="89"/>
       <c r="P109" s="89"/>
@@ -9561,10 +9714,10 @@
       <c r="G110" s="89"/>
       <c r="H110" s="89"/>
       <c r="I110" s="89"/>
-      <c r="J110" s="91"/>
+      <c r="J110" s="93"/>
       <c r="K110" s="89"/>
       <c r="L110" s="89"/>
-      <c r="M110" s="93"/>
+      <c r="M110" s="95"/>
       <c r="N110" s="89"/>
       <c r="O110" s="89"/>
       <c r="P110" s="89"/>
@@ -9597,10 +9750,10 @@
       <c r="G111" s="89"/>
       <c r="H111" s="89"/>
       <c r="I111" s="89"/>
-      <c r="J111" s="91"/>
+      <c r="J111" s="93"/>
       <c r="K111" s="89"/>
       <c r="L111" s="89"/>
-      <c r="M111" s="93"/>
+      <c r="M111" s="95"/>
       <c r="N111" s="89"/>
       <c r="O111" s="89"/>
       <c r="P111" s="89"/>
@@ -9633,10 +9786,10 @@
       <c r="G112" s="89"/>
       <c r="H112" s="89"/>
       <c r="I112" s="89"/>
-      <c r="J112" s="91"/>
+      <c r="J112" s="93"/>
       <c r="K112" s="89"/>
       <c r="L112" s="89"/>
-      <c r="M112" s="93"/>
+      <c r="M112" s="95"/>
       <c r="N112" s="89"/>
       <c r="O112" s="89"/>
       <c r="P112" s="89"/>
@@ -9669,10 +9822,10 @@
       <c r="G113" s="89"/>
       <c r="H113" s="89"/>
       <c r="I113" s="89"/>
-      <c r="J113" s="91"/>
+      <c r="J113" s="93"/>
       <c r="K113" s="89"/>
       <c r="L113" s="89"/>
-      <c r="M113" s="93"/>
+      <c r="M113" s="95"/>
       <c r="N113" s="89"/>
       <c r="O113" s="89"/>
       <c r="P113" s="89"/>
@@ -9705,10 +9858,10 @@
       <c r="G114" s="89"/>
       <c r="H114" s="89"/>
       <c r="I114" s="89"/>
-      <c r="J114" s="91"/>
+      <c r="J114" s="93"/>
       <c r="K114" s="89"/>
       <c r="L114" s="89"/>
-      <c r="M114" s="93"/>
+      <c r="M114" s="95"/>
       <c r="N114" s="89"/>
       <c r="O114" s="89"/>
       <c r="P114" s="89"/>
@@ -9741,10 +9894,10 @@
       <c r="G115" s="89"/>
       <c r="H115" s="89"/>
       <c r="I115" s="89"/>
-      <c r="J115" s="91"/>
+      <c r="J115" s="93"/>
       <c r="K115" s="89"/>
       <c r="L115" s="89"/>
-      <c r="M115" s="93"/>
+      <c r="M115" s="95"/>
       <c r="N115" s="89"/>
       <c r="O115" s="89"/>
       <c r="P115" s="89"/>
@@ -9777,10 +9930,10 @@
       <c r="G116" s="89"/>
       <c r="H116" s="89"/>
       <c r="I116" s="89"/>
-      <c r="J116" s="91"/>
+      <c r="J116" s="93"/>
       <c r="K116" s="89"/>
       <c r="L116" s="89"/>
-      <c r="M116" s="93"/>
+      <c r="M116" s="95"/>
       <c r="N116" s="89"/>
       <c r="O116" s="89"/>
       <c r="P116" s="89"/>
@@ -9813,10 +9966,10 @@
       <c r="G117" s="89"/>
       <c r="H117" s="89"/>
       <c r="I117" s="89"/>
-      <c r="J117" s="91"/>
+      <c r="J117" s="93"/>
       <c r="K117" s="89"/>
       <c r="L117" s="89"/>
-      <c r="M117" s="93"/>
+      <c r="M117" s="95"/>
       <c r="N117" s="89"/>
       <c r="O117" s="89"/>
       <c r="P117" s="89"/>
@@ -9849,10 +10002,10 @@
       <c r="G118" s="89"/>
       <c r="H118" s="89"/>
       <c r="I118" s="89"/>
-      <c r="J118" s="91"/>
+      <c r="J118" s="93"/>
       <c r="K118" s="89"/>
       <c r="L118" s="89"/>
-      <c r="M118" s="93"/>
+      <c r="M118" s="95"/>
       <c r="N118" s="89"/>
       <c r="O118" s="89"/>
       <c r="P118" s="89"/>
@@ -9885,10 +10038,10 @@
       <c r="G119" s="89"/>
       <c r="H119" s="89"/>
       <c r="I119" s="89"/>
-      <c r="J119" s="91"/>
+      <c r="J119" s="93"/>
       <c r="K119" s="89"/>
       <c r="L119" s="89"/>
-      <c r="M119" s="93"/>
+      <c r="M119" s="95"/>
       <c r="N119" s="89"/>
       <c r="O119" s="89"/>
       <c r="P119" s="89"/>
@@ -9921,10 +10074,10 @@
       <c r="G120" s="89"/>
       <c r="H120" s="89"/>
       <c r="I120" s="89"/>
-      <c r="J120" s="91"/>
+      <c r="J120" s="93"/>
       <c r="K120" s="89"/>
       <c r="L120" s="89"/>
-      <c r="M120" s="93"/>
+      <c r="M120" s="95"/>
       <c r="N120" s="89"/>
       <c r="O120" s="89"/>
       <c r="P120" s="89"/>
@@ -9957,10 +10110,10 @@
       <c r="G121" s="89"/>
       <c r="H121" s="89"/>
       <c r="I121" s="89"/>
-      <c r="J121" s="91"/>
+      <c r="J121" s="93"/>
       <c r="K121" s="89"/>
       <c r="L121" s="89"/>
-      <c r="M121" s="93"/>
+      <c r="M121" s="95"/>
       <c r="N121" s="89"/>
       <c r="O121" s="89"/>
       <c r="P121" s="89"/>
@@ -9993,10 +10146,10 @@
       <c r="G122" s="89"/>
       <c r="H122" s="89"/>
       <c r="I122" s="89"/>
-      <c r="J122" s="91"/>
+      <c r="J122" s="93"/>
       <c r="K122" s="89"/>
       <c r="L122" s="89"/>
-      <c r="M122" s="93"/>
+      <c r="M122" s="95"/>
       <c r="N122" s="89"/>
       <c r="O122" s="89"/>
       <c r="P122" s="89"/>
@@ -10029,10 +10182,10 @@
       <c r="G123" s="89"/>
       <c r="H123" s="89"/>
       <c r="I123" s="89"/>
-      <c r="J123" s="91"/>
+      <c r="J123" s="93"/>
       <c r="K123" s="89"/>
       <c r="L123" s="89"/>
-      <c r="M123" s="93"/>
+      <c r="M123" s="95"/>
       <c r="N123" s="89"/>
       <c r="O123" s="89"/>
       <c r="P123" s="89"/>
@@ -10065,10 +10218,10 @@
       <c r="G124" s="89"/>
       <c r="H124" s="89"/>
       <c r="I124" s="89"/>
-      <c r="J124" s="91"/>
+      <c r="J124" s="93"/>
       <c r="K124" s="89"/>
       <c r="L124" s="89"/>
-      <c r="M124" s="93"/>
+      <c r="M124" s="95"/>
       <c r="N124" s="89"/>
       <c r="O124" s="89"/>
       <c r="P124" s="89"/>
@@ -10101,10 +10254,10 @@
       <c r="G125" s="89"/>
       <c r="H125" s="89"/>
       <c r="I125" s="89"/>
-      <c r="J125" s="91"/>
+      <c r="J125" s="93"/>
       <c r="K125" s="89"/>
       <c r="L125" s="89"/>
-      <c r="M125" s="93"/>
+      <c r="M125" s="95"/>
       <c r="N125" s="89"/>
       <c r="O125" s="89"/>
       <c r="P125" s="89"/>
@@ -10137,10 +10290,10 @@
       <c r="G126" s="89"/>
       <c r="H126" s="89"/>
       <c r="I126" s="89"/>
-      <c r="J126" s="91"/>
+      <c r="J126" s="93"/>
       <c r="K126" s="89"/>
       <c r="L126" s="89"/>
-      <c r="M126" s="93"/>
+      <c r="M126" s="95"/>
       <c r="N126" s="89"/>
       <c r="O126" s="89"/>
       <c r="P126" s="89"/>
@@ -10173,10 +10326,10 @@
       <c r="G127" s="89"/>
       <c r="H127" s="89"/>
       <c r="I127" s="89"/>
-      <c r="J127" s="91"/>
+      <c r="J127" s="93"/>
       <c r="K127" s="89"/>
       <c r="L127" s="89"/>
-      <c r="M127" s="93"/>
+      <c r="M127" s="95"/>
       <c r="N127" s="89"/>
       <c r="O127" s="89"/>
       <c r="P127" s="89"/>
@@ -10209,10 +10362,10 @@
       <c r="G128" s="89"/>
       <c r="H128" s="89"/>
       <c r="I128" s="89"/>
-      <c r="J128" s="91"/>
+      <c r="J128" s="93"/>
       <c r="K128" s="89"/>
       <c r="L128" s="89"/>
-      <c r="M128" s="93"/>
+      <c r="M128" s="95"/>
       <c r="N128" s="89"/>
       <c r="O128" s="89"/>
       <c r="P128" s="89"/>
@@ -10245,10 +10398,10 @@
       <c r="G129" s="89"/>
       <c r="H129" s="89"/>
       <c r="I129" s="89"/>
-      <c r="J129" s="91"/>
+      <c r="J129" s="93"/>
       <c r="K129" s="89"/>
       <c r="L129" s="89"/>
-      <c r="M129" s="93"/>
+      <c r="M129" s="95"/>
       <c r="N129" s="89"/>
       <c r="O129" s="89"/>
       <c r="P129" s="89"/>
@@ -10281,10 +10434,10 @@
       <c r="G130" s="89"/>
       <c r="H130" s="89"/>
       <c r="I130" s="89"/>
-      <c r="J130" s="91"/>
+      <c r="J130" s="93"/>
       <c r="K130" s="89"/>
       <c r="L130" s="89"/>
-      <c r="M130" s="93"/>
+      <c r="M130" s="95"/>
       <c r="N130" s="89"/>
       <c r="O130" s="89"/>
       <c r="P130" s="89"/>
@@ -10317,10 +10470,10 @@
       <c r="G131" s="89"/>
       <c r="H131" s="89"/>
       <c r="I131" s="89"/>
-      <c r="J131" s="91"/>
+      <c r="J131" s="93"/>
       <c r="K131" s="89"/>
       <c r="L131" s="89"/>
-      <c r="M131" s="93"/>
+      <c r="M131" s="95"/>
       <c r="N131" s="89"/>
       <c r="O131" s="89"/>
       <c r="P131" s="89"/>
@@ -10353,10 +10506,10 @@
       <c r="G132" s="89"/>
       <c r="H132" s="89"/>
       <c r="I132" s="89"/>
-      <c r="J132" s="91"/>
+      <c r="J132" s="93"/>
       <c r="K132" s="89"/>
       <c r="L132" s="89"/>
-      <c r="M132" s="93"/>
+      <c r="M132" s="95"/>
       <c r="N132" s="89"/>
       <c r="O132" s="89"/>
       <c r="P132" s="89"/>
@@ -10389,10 +10542,10 @@
       <c r="G133" s="89"/>
       <c r="H133" s="89"/>
       <c r="I133" s="89"/>
-      <c r="J133" s="91"/>
+      <c r="J133" s="93"/>
       <c r="K133" s="89"/>
       <c r="L133" s="89"/>
-      <c r="M133" s="93"/>
+      <c r="M133" s="95"/>
       <c r="N133" s="89"/>
       <c r="O133" s="89"/>
       <c r="P133" s="89"/>
@@ -10425,10 +10578,10 @@
       <c r="G134" s="89"/>
       <c r="H134" s="89"/>
       <c r="I134" s="89"/>
-      <c r="J134" s="91"/>
+      <c r="J134" s="93"/>
       <c r="K134" s="89"/>
       <c r="L134" s="89"/>
-      <c r="M134" s="93"/>
+      <c r="M134" s="95"/>
       <c r="N134" s="89"/>
       <c r="O134" s="89"/>
       <c r="P134" s="89"/>
@@ -10461,10 +10614,10 @@
       <c r="G135" s="89"/>
       <c r="H135" s="89"/>
       <c r="I135" s="89"/>
-      <c r="J135" s="91"/>
+      <c r="J135" s="93"/>
       <c r="K135" s="89"/>
       <c r="L135" s="89"/>
-      <c r="M135" s="93"/>
+      <c r="M135" s="95"/>
       <c r="N135" s="89"/>
       <c r="O135" s="89"/>
       <c r="P135" s="89"/>
@@ -10497,10 +10650,10 @@
       <c r="G136" s="89"/>
       <c r="H136" s="89"/>
       <c r="I136" s="89"/>
-      <c r="J136" s="91"/>
+      <c r="J136" s="93"/>
       <c r="K136" s="89"/>
       <c r="L136" s="89"/>
-      <c r="M136" s="93"/>
+      <c r="M136" s="95"/>
       <c r="N136" s="89"/>
       <c r="O136" s="89"/>
       <c r="P136" s="89"/>
@@ -10533,10 +10686,10 @@
       <c r="G137" s="89"/>
       <c r="H137" s="89"/>
       <c r="I137" s="89"/>
-      <c r="J137" s="91"/>
+      <c r="J137" s="93"/>
       <c r="K137" s="89"/>
       <c r="L137" s="89"/>
-      <c r="M137" s="93"/>
+      <c r="M137" s="95"/>
       <c r="N137" s="89"/>
       <c r="O137" s="89"/>
       <c r="P137" s="89"/>
@@ -10569,10 +10722,10 @@
       <c r="G138" s="89"/>
       <c r="H138" s="89"/>
       <c r="I138" s="89"/>
-      <c r="J138" s="91"/>
+      <c r="J138" s="93"/>
       <c r="K138" s="89"/>
       <c r="L138" s="89"/>
-      <c r="M138" s="93"/>
+      <c r="M138" s="95"/>
       <c r="N138" s="89"/>
       <c r="O138" s="89"/>
       <c r="P138" s="89"/>
@@ -10605,10 +10758,10 @@
       <c r="G139" s="89"/>
       <c r="H139" s="89"/>
       <c r="I139" s="89"/>
-      <c r="J139" s="91"/>
+      <c r="J139" s="93"/>
       <c r="K139" s="89"/>
       <c r="L139" s="89"/>
-      <c r="M139" s="93"/>
+      <c r="M139" s="95"/>
       <c r="N139" s="89"/>
       <c r="O139" s="89"/>
       <c r="P139" s="89"/>
@@ -10641,10 +10794,10 @@
       <c r="G140" s="89"/>
       <c r="H140" s="89"/>
       <c r="I140" s="89"/>
-      <c r="J140" s="91"/>
+      <c r="J140" s="93"/>
       <c r="K140" s="89"/>
       <c r="L140" s="89"/>
-      <c r="M140" s="93"/>
+      <c r="M140" s="95"/>
       <c r="N140" s="89"/>
       <c r="O140" s="89"/>
       <c r="P140" s="89"/>
@@ -10677,10 +10830,10 @@
       <c r="G141" s="89"/>
       <c r="H141" s="89"/>
       <c r="I141" s="89"/>
-      <c r="J141" s="91"/>
+      <c r="J141" s="93"/>
       <c r="K141" s="89"/>
       <c r="L141" s="89"/>
-      <c r="M141" s="93"/>
+      <c r="M141" s="95"/>
       <c r="N141" s="89"/>
       <c r="O141" s="89"/>
       <c r="P141" s="89"/>
@@ -10713,10 +10866,10 @@
       <c r="G142" s="89"/>
       <c r="H142" s="89"/>
       <c r="I142" s="89"/>
-      <c r="J142" s="91"/>
+      <c r="J142" s="93"/>
       <c r="K142" s="89"/>
       <c r="L142" s="89"/>
-      <c r="M142" s="93"/>
+      <c r="M142" s="95"/>
       <c r="N142" s="89"/>
       <c r="O142" s="89"/>
       <c r="P142" s="89"/>
@@ -10749,10 +10902,10 @@
       <c r="G143" s="89"/>
       <c r="H143" s="89"/>
       <c r="I143" s="89"/>
-      <c r="J143" s="91"/>
+      <c r="J143" s="93"/>
       <c r="K143" s="89"/>
       <c r="L143" s="89"/>
-      <c r="M143" s="93"/>
+      <c r="M143" s="95"/>
       <c r="N143" s="89"/>
       <c r="O143" s="89"/>
       <c r="P143" s="89"/>
@@ -10785,10 +10938,10 @@
       <c r="G144" s="89"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89"/>
-      <c r="J144" s="91"/>
+      <c r="J144" s="93"/>
       <c r="K144" s="89"/>
       <c r="L144" s="89"/>
-      <c r="M144" s="93"/>
+      <c r="M144" s="95"/>
       <c r="N144" s="89"/>
       <c r="O144" s="89"/>
       <c r="P144" s="89"/>
@@ -10821,10 +10974,10 @@
       <c r="G145" s="89"/>
       <c r="H145" s="89"/>
       <c r="I145" s="89"/>
-      <c r="J145" s="91"/>
+      <c r="J145" s="93"/>
       <c r="K145" s="89"/>
       <c r="L145" s="89"/>
-      <c r="M145" s="93"/>
+      <c r="M145" s="95"/>
       <c r="N145" s="89"/>
       <c r="O145" s="89"/>
       <c r="P145" s="89"/>
@@ -10857,10 +11010,10 @@
       <c r="G146" s="89"/>
       <c r="H146" s="89"/>
       <c r="I146" s="89"/>
-      <c r="J146" s="91"/>
+      <c r="J146" s="93"/>
       <c r="K146" s="89"/>
       <c r="L146" s="89"/>
-      <c r="M146" s="93"/>
+      <c r="M146" s="95"/>
       <c r="N146" s="89"/>
       <c r="O146" s="89"/>
       <c r="P146" s="89"/>
@@ -10893,10 +11046,10 @@
       <c r="G147" s="89"/>
       <c r="H147" s="89"/>
       <c r="I147" s="89"/>
-      <c r="J147" s="91"/>
+      <c r="J147" s="93"/>
       <c r="K147" s="89"/>
       <c r="L147" s="89"/>
-      <c r="M147" s="93"/>
+      <c r="M147" s="95"/>
       <c r="N147" s="89"/>
       <c r="O147" s="89"/>
       <c r="P147" s="89"/>
@@ -10929,10 +11082,10 @@
       <c r="G148" s="89"/>
       <c r="H148" s="89"/>
       <c r="I148" s="89"/>
-      <c r="J148" s="91"/>
+      <c r="J148" s="93"/>
       <c r="K148" s="89"/>
       <c r="L148" s="89"/>
-      <c r="M148" s="93"/>
+      <c r="M148" s="95"/>
       <c r="N148" s="89"/>
       <c r="O148" s="89"/>
       <c r="P148" s="89"/>
@@ -10965,10 +11118,10 @@
       <c r="G149" s="89"/>
       <c r="H149" s="89"/>
       <c r="I149" s="89"/>
-      <c r="J149" s="91"/>
+      <c r="J149" s="93"/>
       <c r="K149" s="89"/>
       <c r="L149" s="89"/>
-      <c r="M149" s="93"/>
+      <c r="M149" s="95"/>
       <c r="N149" s="89"/>
       <c r="O149" s="89"/>
       <c r="P149" s="89"/>
@@ -11001,10 +11154,10 @@
       <c r="G150" s="89"/>
       <c r="H150" s="89"/>
       <c r="I150" s="89"/>
-      <c r="J150" s="91"/>
+      <c r="J150" s="93"/>
       <c r="K150" s="89"/>
       <c r="L150" s="89"/>
-      <c r="M150" s="93"/>
+      <c r="M150" s="95"/>
       <c r="N150" s="89"/>
       <c r="O150" s="89"/>
       <c r="P150" s="89"/>
@@ -11037,10 +11190,10 @@
       <c r="G151" s="89"/>
       <c r="H151" s="89"/>
       <c r="I151" s="89"/>
-      <c r="J151" s="91"/>
+      <c r="J151" s="93"/>
       <c r="K151" s="89"/>
       <c r="L151" s="89"/>
-      <c r="M151" s="93"/>
+      <c r="M151" s="95"/>
       <c r="N151" s="89"/>
       <c r="O151" s="89"/>
       <c r="P151" s="89"/>
@@ -11073,10 +11226,10 @@
       <c r="G152" s="89"/>
       <c r="H152" s="89"/>
       <c r="I152" s="89"/>
-      <c r="J152" s="91"/>
+      <c r="J152" s="93"/>
       <c r="K152" s="89"/>
       <c r="L152" s="89"/>
-      <c r="M152" s="93"/>
+      <c r="M152" s="95"/>
       <c r="N152" s="89"/>
       <c r="O152" s="89"/>
       <c r="P152" s="89"/>
@@ -11109,10 +11262,10 @@
       <c r="G153" s="89"/>
       <c r="H153" s="89"/>
       <c r="I153" s="89"/>
-      <c r="J153" s="91"/>
+      <c r="J153" s="93"/>
       <c r="K153" s="89"/>
       <c r="L153" s="89"/>
-      <c r="M153" s="93"/>
+      <c r="M153" s="95"/>
       <c r="N153" s="89"/>
       <c r="O153" s="89"/>
       <c r="P153" s="89"/>
@@ -11145,10 +11298,10 @@
       <c r="G154" s="89"/>
       <c r="H154" s="89"/>
       <c r="I154" s="89"/>
-      <c r="J154" s="91"/>
+      <c r="J154" s="93"/>
       <c r="K154" s="89"/>
       <c r="L154" s="89"/>
-      <c r="M154" s="93"/>
+      <c r="M154" s="95"/>
       <c r="N154" s="89"/>
       <c r="O154" s="89"/>
       <c r="P154" s="89"/>
@@ -11181,10 +11334,10 @@
       <c r="G155" s="89"/>
       <c r="H155" s="89"/>
       <c r="I155" s="89"/>
-      <c r="J155" s="91"/>
+      <c r="J155" s="93"/>
       <c r="K155" s="89"/>
       <c r="L155" s="89"/>
-      <c r="M155" s="93"/>
+      <c r="M155" s="95"/>
       <c r="N155" s="89"/>
       <c r="O155" s="89"/>
       <c r="P155" s="89"/>
@@ -11217,10 +11370,10 @@
       <c r="G156" s="89"/>
       <c r="H156" s="89"/>
       <c r="I156" s="89"/>
-      <c r="J156" s="91"/>
+      <c r="J156" s="93"/>
       <c r="K156" s="89"/>
       <c r="L156" s="89"/>
-      <c r="M156" s="93"/>
+      <c r="M156" s="95"/>
       <c r="N156" s="89"/>
       <c r="O156" s="89"/>
       <c r="P156" s="89"/>
@@ -11253,10 +11406,10 @@
       <c r="G157" s="89"/>
       <c r="H157" s="89"/>
       <c r="I157" s="89"/>
-      <c r="J157" s="91"/>
+      <c r="J157" s="93"/>
       <c r="K157" s="89"/>
       <c r="L157" s="89"/>
-      <c r="M157" s="93"/>
+      <c r="M157" s="95"/>
       <c r="N157" s="89"/>
       <c r="O157" s="89"/>
       <c r="P157" s="89"/>
@@ -11289,10 +11442,10 @@
       <c r="G158" s="89"/>
       <c r="H158" s="89"/>
       <c r="I158" s="89"/>
-      <c r="J158" s="91"/>
+      <c r="J158" s="93"/>
       <c r="K158" s="89"/>
       <c r="L158" s="89"/>
-      <c r="M158" s="93"/>
+      <c r="M158" s="95"/>
       <c r="N158" s="89"/>
       <c r="O158" s="89"/>
       <c r="P158" s="89"/>
@@ -11325,10 +11478,10 @@
       <c r="G159" s="89"/>
       <c r="H159" s="89"/>
       <c r="I159" s="89"/>
-      <c r="J159" s="91"/>
+      <c r="J159" s="93"/>
       <c r="K159" s="89"/>
       <c r="L159" s="89"/>
-      <c r="M159" s="93"/>
+      <c r="M159" s="95"/>
       <c r="N159" s="89"/>
       <c r="O159" s="89"/>
       <c r="P159" s="89"/>
@@ -11361,10 +11514,10 @@
       <c r="G160" s="89"/>
       <c r="H160" s="89"/>
       <c r="I160" s="89"/>
-      <c r="J160" s="91"/>
+      <c r="J160" s="93"/>
       <c r="K160" s="89"/>
       <c r="L160" s="89"/>
-      <c r="M160" s="93"/>
+      <c r="M160" s="95"/>
       <c r="N160" s="89"/>
       <c r="O160" s="89"/>
       <c r="P160" s="89"/>
@@ -11397,10 +11550,10 @@
       <c r="G161" s="89"/>
       <c r="H161" s="89"/>
       <c r="I161" s="89"/>
-      <c r="J161" s="91"/>
+      <c r="J161" s="93"/>
       <c r="K161" s="89"/>
       <c r="L161" s="89"/>
-      <c r="M161" s="93"/>
+      <c r="M161" s="95"/>
       <c r="N161" s="89"/>
       <c r="O161" s="89"/>
       <c r="P161" s="89"/>
@@ -11433,10 +11586,10 @@
       <c r="G162" s="89"/>
       <c r="H162" s="89"/>
       <c r="I162" s="89"/>
-      <c r="J162" s="91"/>
+      <c r="J162" s="93"/>
       <c r="K162" s="89"/>
       <c r="L162" s="89"/>
-      <c r="M162" s="93"/>
+      <c r="M162" s="95"/>
       <c r="N162" s="89"/>
       <c r="O162" s="89"/>
       <c r="P162" s="89"/>
@@ -11469,10 +11622,10 @@
       <c r="G163" s="89"/>
       <c r="H163" s="89"/>
       <c r="I163" s="89"/>
-      <c r="J163" s="91"/>
+      <c r="J163" s="93"/>
       <c r="K163" s="89"/>
       <c r="L163" s="89"/>
-      <c r="M163" s="93"/>
+      <c r="M163" s="95"/>
       <c r="N163" s="89"/>
       <c r="O163" s="89"/>
       <c r="P163" s="89"/>
@@ -11505,10 +11658,10 @@
       <c r="G164" s="89"/>
       <c r="H164" s="89"/>
       <c r="I164" s="89"/>
-      <c r="J164" s="91"/>
+      <c r="J164" s="93"/>
       <c r="K164" s="89"/>
       <c r="L164" s="89"/>
-      <c r="M164" s="93"/>
+      <c r="M164" s="95"/>
       <c r="N164" s="89"/>
       <c r="O164" s="89"/>
       <c r="P164" s="89"/>
@@ -11541,10 +11694,10 @@
       <c r="G165" s="89"/>
       <c r="H165" s="89"/>
       <c r="I165" s="89"/>
-      <c r="J165" s="91"/>
+      <c r="J165" s="93"/>
       <c r="K165" s="89"/>
       <c r="L165" s="89"/>
-      <c r="M165" s="93"/>
+      <c r="M165" s="95"/>
       <c r="N165" s="89"/>
       <c r="O165" s="89"/>
       <c r="P165" s="89"/>
@@ -11577,10 +11730,10 @@
       <c r="G166" s="89"/>
       <c r="H166" s="89"/>
       <c r="I166" s="89"/>
-      <c r="J166" s="91"/>
+      <c r="J166" s="93"/>
       <c r="K166" s="89"/>
       <c r="L166" s="89"/>
-      <c r="M166" s="93"/>
+      <c r="M166" s="95"/>
       <c r="N166" s="89"/>
       <c r="O166" s="89"/>
       <c r="P166" s="89"/>
@@ -11613,10 +11766,10 @@
       <c r="G167" s="89"/>
       <c r="H167" s="89"/>
       <c r="I167" s="89"/>
-      <c r="J167" s="91"/>
+      <c r="J167" s="93"/>
       <c r="K167" s="89"/>
       <c r="L167" s="89"/>
-      <c r="M167" s="93"/>
+      <c r="M167" s="95"/>
       <c r="N167" s="89"/>
       <c r="O167" s="89"/>
       <c r="P167" s="89"/>
@@ -11649,10 +11802,10 @@
       <c r="G168" s="89"/>
       <c r="H168" s="89"/>
       <c r="I168" s="89"/>
-      <c r="J168" s="91"/>
+      <c r="J168" s="93"/>
       <c r="K168" s="89"/>
       <c r="L168" s="89"/>
-      <c r="M168" s="93"/>
+      <c r="M168" s="95"/>
       <c r="N168" s="89"/>
       <c r="O168" s="89"/>
       <c r="P168" s="89"/>
@@ -11685,10 +11838,10 @@
       <c r="G169" s="89"/>
       <c r="H169" s="89"/>
       <c r="I169" s="89"/>
-      <c r="J169" s="91"/>
+      <c r="J169" s="93"/>
       <c r="K169" s="89"/>
       <c r="L169" s="89"/>
-      <c r="M169" s="93"/>
+      <c r="M169" s="95"/>
       <c r="N169" s="89"/>
       <c r="O169" s="89"/>
       <c r="P169" s="89"/>
@@ -11721,10 +11874,10 @@
       <c r="G170" s="89"/>
       <c r="H170" s="89"/>
       <c r="I170" s="89"/>
-      <c r="J170" s="91"/>
+      <c r="J170" s="93"/>
       <c r="K170" s="89"/>
       <c r="L170" s="89"/>
-      <c r="M170" s="93"/>
+      <c r="M170" s="95"/>
       <c r="N170" s="89"/>
       <c r="O170" s="89"/>
       <c r="P170" s="89"/>
@@ -11757,10 +11910,10 @@
       <c r="G171" s="89"/>
       <c r="H171" s="89"/>
       <c r="I171" s="89"/>
-      <c r="J171" s="91"/>
+      <c r="J171" s="93"/>
       <c r="K171" s="89"/>
       <c r="L171" s="89"/>
-      <c r="M171" s="93"/>
+      <c r="M171" s="95"/>
       <c r="N171" s="89"/>
       <c r="O171" s="89"/>
       <c r="P171" s="89"/>
@@ -11793,10 +11946,10 @@
       <c r="G172" s="89"/>
       <c r="H172" s="89"/>
       <c r="I172" s="89"/>
-      <c r="J172" s="91"/>
+      <c r="J172" s="93"/>
       <c r="K172" s="89"/>
       <c r="L172" s="89"/>
-      <c r="M172" s="93"/>
+      <c r="M172" s="95"/>
       <c r="N172" s="89"/>
       <c r="O172" s="89"/>
       <c r="P172" s="89"/>
@@ -11829,10 +11982,10 @@
       <c r="G173" s="89"/>
       <c r="H173" s="89"/>
       <c r="I173" s="89"/>
-      <c r="J173" s="91"/>
+      <c r="J173" s="93"/>
       <c r="K173" s="89"/>
       <c r="L173" s="89"/>
-      <c r="M173" s="93"/>
+      <c r="M173" s="95"/>
       <c r="N173" s="89"/>
       <c r="O173" s="89"/>
       <c r="P173" s="89"/>
@@ -11865,10 +12018,10 @@
       <c r="G174" s="89"/>
       <c r="H174" s="89"/>
       <c r="I174" s="89"/>
-      <c r="J174" s="91"/>
+      <c r="J174" s="93"/>
       <c r="K174" s="89"/>
       <c r="L174" s="89"/>
-      <c r="M174" s="93"/>
+      <c r="M174" s="95"/>
       <c r="N174" s="89"/>
       <c r="O174" s="89"/>
       <c r="P174" s="89"/>
@@ -11901,10 +12054,10 @@
       <c r="G175" s="89"/>
       <c r="H175" s="89"/>
       <c r="I175" s="89"/>
-      <c r="J175" s="91"/>
+      <c r="J175" s="93"/>
       <c r="K175" s="89"/>
       <c r="L175" s="89"/>
-      <c r="M175" s="93"/>
+      <c r="M175" s="95"/>
       <c r="N175" s="89"/>
       <c r="O175" s="89"/>
       <c r="P175" s="89"/>
@@ -11937,10 +12090,10 @@
       <c r="G176" s="89"/>
       <c r="H176" s="89"/>
       <c r="I176" s="89"/>
-      <c r="J176" s="91"/>
+      <c r="J176" s="93"/>
       <c r="K176" s="89"/>
       <c r="L176" s="89"/>
-      <c r="M176" s="93"/>
+      <c r="M176" s="95"/>
       <c r="N176" s="89"/>
       <c r="O176" s="89"/>
       <c r="P176" s="89"/>
@@ -11973,10 +12126,10 @@
       <c r="G177" s="89"/>
       <c r="H177" s="89"/>
       <c r="I177" s="89"/>
-      <c r="J177" s="91"/>
+      <c r="J177" s="93"/>
       <c r="K177" s="89"/>
       <c r="L177" s="89"/>
-      <c r="M177" s="93"/>
+      <c r="M177" s="95"/>
       <c r="N177" s="89"/>
       <c r="O177" s="89"/>
       <c r="P177" s="89"/>
@@ -12009,10 +12162,10 @@
       <c r="G178" s="89"/>
       <c r="H178" s="89"/>
       <c r="I178" s="89"/>
-      <c r="J178" s="91"/>
+      <c r="J178" s="93"/>
       <c r="K178" s="89"/>
       <c r="L178" s="89"/>
-      <c r="M178" s="93"/>
+      <c r="M178" s="95"/>
       <c r="N178" s="89"/>
       <c r="O178" s="89"/>
       <c r="P178" s="89"/>
@@ -12045,10 +12198,10 @@
       <c r="G179" s="89"/>
       <c r="H179" s="89"/>
       <c r="I179" s="89"/>
-      <c r="J179" s="91"/>
+      <c r="J179" s="93"/>
       <c r="K179" s="89"/>
       <c r="L179" s="89"/>
-      <c r="M179" s="93"/>
+      <c r="M179" s="95"/>
       <c r="N179" s="89"/>
       <c r="O179" s="89"/>
       <c r="P179" s="89"/>
@@ -12081,10 +12234,10 @@
       <c r="G180" s="89"/>
       <c r="H180" s="89"/>
       <c r="I180" s="89"/>
-      <c r="J180" s="91"/>
+      <c r="J180" s="93"/>
       <c r="K180" s="89"/>
       <c r="L180" s="89"/>
-      <c r="M180" s="93"/>
+      <c r="M180" s="95"/>
       <c r="N180" s="89"/>
       <c r="O180" s="89"/>
       <c r="P180" s="89"/>
@@ -12117,10 +12270,10 @@
       <c r="G181" s="89"/>
       <c r="H181" s="89"/>
       <c r="I181" s="89"/>
-      <c r="J181" s="91"/>
+      <c r="J181" s="93"/>
       <c r="K181" s="89"/>
       <c r="L181" s="89"/>
-      <c r="M181" s="93"/>
+      <c r="M181" s="95"/>
       <c r="N181" s="89"/>
       <c r="O181" s="89"/>
       <c r="P181" s="89"/>
@@ -12153,10 +12306,10 @@
       <c r="G182" s="89"/>
       <c r="H182" s="89"/>
       <c r="I182" s="89"/>
-      <c r="J182" s="91"/>
+      <c r="J182" s="93"/>
       <c r="K182" s="89"/>
       <c r="L182" s="89"/>
-      <c r="M182" s="93"/>
+      <c r="M182" s="95"/>
       <c r="N182" s="89"/>
       <c r="O182" s="89"/>
       <c r="P182" s="89"/>
@@ -12189,10 +12342,10 @@
       <c r="G183" s="89"/>
       <c r="H183" s="89"/>
       <c r="I183" s="89"/>
-      <c r="J183" s="91"/>
+      <c r="J183" s="93"/>
       <c r="K183" s="89"/>
       <c r="L183" s="89"/>
-      <c r="M183" s="93"/>
+      <c r="M183" s="95"/>
       <c r="N183" s="89"/>
       <c r="O183" s="89"/>
       <c r="P183" s="89"/>
@@ -12225,10 +12378,10 @@
       <c r="G184" s="89"/>
       <c r="H184" s="89"/>
       <c r="I184" s="89"/>
-      <c r="J184" s="91"/>
+      <c r="J184" s="93"/>
       <c r="K184" s="89"/>
       <c r="L184" s="89"/>
-      <c r="M184" s="93"/>
+      <c r="M184" s="95"/>
       <c r="N184" s="89"/>
       <c r="O184" s="89"/>
       <c r="P184" s="89"/>
@@ -12261,10 +12414,10 @@
       <c r="G185" s="89"/>
       <c r="H185" s="89"/>
       <c r="I185" s="89"/>
-      <c r="J185" s="91"/>
+      <c r="J185" s="93"/>
       <c r="K185" s="89"/>
       <c r="L185" s="89"/>
-      <c r="M185" s="93"/>
+      <c r="M185" s="95"/>
       <c r="N185" s="89"/>
       <c r="O185" s="89"/>
       <c r="P185" s="89"/>
@@ -12297,10 +12450,10 @@
       <c r="G186" s="89"/>
       <c r="H186" s="89"/>
       <c r="I186" s="89"/>
-      <c r="J186" s="91"/>
+      <c r="J186" s="93"/>
       <c r="K186" s="89"/>
       <c r="L186" s="89"/>
-      <c r="M186" s="93"/>
+      <c r="M186" s="95"/>
       <c r="N186" s="89"/>
       <c r="O186" s="89"/>
       <c r="P186" s="89"/>
@@ -12333,10 +12486,10 @@
       <c r="G187" s="89"/>
       <c r="H187" s="89"/>
       <c r="I187" s="89"/>
-      <c r="J187" s="91"/>
+      <c r="J187" s="93"/>
       <c r="K187" s="89"/>
       <c r="L187" s="89"/>
-      <c r="M187" s="93"/>
+      <c r="M187" s="95"/>
       <c r="N187" s="89"/>
       <c r="O187" s="89"/>
       <c r="P187" s="89"/>
@@ -12369,10 +12522,10 @@
       <c r="G188" s="89"/>
       <c r="H188" s="89"/>
       <c r="I188" s="89"/>
-      <c r="J188" s="91"/>
+      <c r="J188" s="93"/>
       <c r="K188" s="89"/>
       <c r="L188" s="89"/>
-      <c r="M188" s="93"/>
+      <c r="M188" s="95"/>
       <c r="N188" s="89"/>
       <c r="O188" s="89"/>
       <c r="P188" s="89"/>
@@ -12405,10 +12558,10 @@
       <c r="G189" s="89"/>
       <c r="H189" s="89"/>
       <c r="I189" s="89"/>
-      <c r="J189" s="91"/>
+      <c r="J189" s="93"/>
       <c r="K189" s="89"/>
       <c r="L189" s="89"/>
-      <c r="M189" s="93"/>
+      <c r="M189" s="95"/>
       <c r="N189" s="89"/>
       <c r="O189" s="89"/>
       <c r="P189" s="89"/>
@@ -12441,10 +12594,10 @@
       <c r="G190" s="89"/>
       <c r="H190" s="89"/>
       <c r="I190" s="89"/>
-      <c r="J190" s="91"/>
+      <c r="J190" s="93"/>
       <c r="K190" s="89"/>
       <c r="L190" s="89"/>
-      <c r="M190" s="93"/>
+      <c r="M190" s="95"/>
       <c r="N190" s="89"/>
       <c r="O190" s="89"/>
       <c r="P190" s="89"/>
@@ -12477,10 +12630,10 @@
       <c r="G191" s="89"/>
       <c r="H191" s="89"/>
       <c r="I191" s="89"/>
-      <c r="J191" s="91"/>
+      <c r="J191" s="93"/>
       <c r="K191" s="89"/>
       <c r="L191" s="89"/>
-      <c r="M191" s="93"/>
+      <c r="M191" s="95"/>
       <c r="N191" s="89"/>
       <c r="O191" s="89"/>
       <c r="P191" s="89"/>
@@ -12513,10 +12666,10 @@
       <c r="G192" s="89"/>
       <c r="H192" s="89"/>
       <c r="I192" s="89"/>
-      <c r="J192" s="91"/>
+      <c r="J192" s="93"/>
       <c r="K192" s="89"/>
       <c r="L192" s="89"/>
-      <c r="M192" s="93"/>
+      <c r="M192" s="95"/>
       <c r="N192" s="89"/>
       <c r="O192" s="89"/>
       <c r="P192" s="89"/>
@@ -12549,10 +12702,10 @@
       <c r="G193" s="89"/>
       <c r="H193" s="89"/>
       <c r="I193" s="89"/>
-      <c r="J193" s="91"/>
+      <c r="J193" s="93"/>
       <c r="K193" s="89"/>
       <c r="L193" s="89"/>
-      <c r="M193" s="93"/>
+      <c r="M193" s="95"/>
       <c r="N193" s="89"/>
       <c r="O193" s="89"/>
       <c r="P193" s="89"/>
@@ -12585,10 +12738,10 @@
       <c r="G194" s="89"/>
       <c r="H194" s="89"/>
       <c r="I194" s="89"/>
-      <c r="J194" s="91"/>
+      <c r="J194" s="93"/>
       <c r="K194" s="89"/>
       <c r="L194" s="89"/>
-      <c r="M194" s="93"/>
+      <c r="M194" s="95"/>
       <c r="N194" s="89"/>
       <c r="O194" s="89"/>
       <c r="P194" s="89"/>
@@ -12621,10 +12774,10 @@
       <c r="G195" s="89"/>
       <c r="H195" s="89"/>
       <c r="I195" s="89"/>
-      <c r="J195" s="91"/>
+      <c r="J195" s="93"/>
       <c r="K195" s="89"/>
       <c r="L195" s="89"/>
-      <c r="M195" s="93"/>
+      <c r="M195" s="95"/>
       <c r="N195" s="89"/>
       <c r="O195" s="89"/>
       <c r="P195" s="89"/>
@@ -12657,10 +12810,10 @@
       <c r="G196" s="89"/>
       <c r="H196" s="89"/>
       <c r="I196" s="89"/>
-      <c r="J196" s="91"/>
+      <c r="J196" s="93"/>
       <c r="K196" s="89"/>
       <c r="L196" s="89"/>
-      <c r="M196" s="93"/>
+      <c r="M196" s="95"/>
       <c r="N196" s="89"/>
       <c r="O196" s="89"/>
       <c r="P196" s="89"/>
@@ -12693,10 +12846,10 @@
       <c r="G197" s="89"/>
       <c r="H197" s="89"/>
       <c r="I197" s="89"/>
-      <c r="J197" s="91"/>
+      <c r="J197" s="93"/>
       <c r="K197" s="89"/>
       <c r="L197" s="89"/>
-      <c r="M197" s="93"/>
+      <c r="M197" s="95"/>
       <c r="N197" s="89"/>
       <c r="O197" s="89"/>
       <c r="P197" s="89"/>
@@ -12729,10 +12882,10 @@
       <c r="G198" s="89"/>
       <c r="H198" s="89"/>
       <c r="I198" s="89"/>
-      <c r="J198" s="91"/>
+      <c r="J198" s="93"/>
       <c r="K198" s="89"/>
       <c r="L198" s="89"/>
-      <c r="M198" s="93"/>
+      <c r="M198" s="95"/>
       <c r="N198" s="89"/>
       <c r="O198" s="89"/>
       <c r="P198" s="89"/>
@@ -12765,10 +12918,10 @@
       <c r="G199" s="89"/>
       <c r="H199" s="89"/>
       <c r="I199" s="89"/>
-      <c r="J199" s="91"/>
+      <c r="J199" s="93"/>
       <c r="K199" s="89"/>
       <c r="L199" s="89"/>
-      <c r="M199" s="93"/>
+      <c r="M199" s="95"/>
       <c r="N199" s="89"/>
       <c r="O199" s="89"/>
       <c r="P199" s="89"/>
@@ -12801,10 +12954,10 @@
       <c r="G200" s="89"/>
       <c r="H200" s="89"/>
       <c r="I200" s="89"/>
-      <c r="J200" s="91"/>
+      <c r="J200" s="93"/>
       <c r="K200" s="89"/>
       <c r="L200" s="89"/>
-      <c r="M200" s="93"/>
+      <c r="M200" s="95"/>
       <c r="N200" s="89"/>
       <c r="O200" s="89"/>
       <c r="P200" s="89"/>
@@ -12837,10 +12990,10 @@
       <c r="G201" s="89"/>
       <c r="H201" s="89"/>
       <c r="I201" s="89"/>
-      <c r="J201" s="91"/>
+      <c r="J201" s="93"/>
       <c r="K201" s="89"/>
       <c r="L201" s="89"/>
-      <c r="M201" s="93"/>
+      <c r="M201" s="95"/>
       <c r="N201" s="89"/>
       <c r="O201" s="89"/>
       <c r="P201" s="89"/>
@@ -12873,10 +13026,10 @@
       <c r="G202" s="89"/>
       <c r="H202" s="89"/>
       <c r="I202" s="89"/>
-      <c r="J202" s="91"/>
+      <c r="J202" s="93"/>
       <c r="K202" s="89"/>
       <c r="L202" s="89"/>
-      <c r="M202" s="93"/>
+      <c r="M202" s="95"/>
       <c r="N202" s="89"/>
       <c r="O202" s="89"/>
       <c r="P202" s="89"/>
@@ -12909,10 +13062,10 @@
       <c r="G203" s="89"/>
       <c r="H203" s="89"/>
       <c r="I203" s="89"/>
-      <c r="J203" s="91"/>
+      <c r="J203" s="93"/>
       <c r="K203" s="89"/>
       <c r="L203" s="89"/>
-      <c r="M203" s="93"/>
+      <c r="M203" s="95"/>
       <c r="N203" s="89"/>
       <c r="O203" s="89"/>
       <c r="P203" s="89"/>
@@ -12945,10 +13098,10 @@
       <c r="G204" s="89"/>
       <c r="H204" s="89"/>
       <c r="I204" s="89"/>
-      <c r="J204" s="91"/>
+      <c r="J204" s="93"/>
       <c r="K204" s="89"/>
       <c r="L204" s="89"/>
-      <c r="M204" s="93"/>
+      <c r="M204" s="95"/>
       <c r="N204" s="89"/>
       <c r="O204" s="89"/>
       <c r="P204" s="89"/>
@@ -12981,10 +13134,10 @@
       <c r="G205" s="89"/>
       <c r="H205" s="89"/>
       <c r="I205" s="89"/>
-      <c r="J205" s="91"/>
+      <c r="J205" s="93"/>
       <c r="K205" s="89"/>
       <c r="L205" s="89"/>
-      <c r="M205" s="93"/>
+      <c r="M205" s="95"/>
       <c r="N205" s="89"/>
       <c r="O205" s="89"/>
       <c r="P205" s="89"/>
@@ -13017,10 +13170,10 @@
       <c r="G206" s="89"/>
       <c r="H206" s="89"/>
       <c r="I206" s="89"/>
-      <c r="J206" s="91"/>
+      <c r="J206" s="93"/>
       <c r="K206" s="89"/>
       <c r="L206" s="89"/>
-      <c r="M206" s="93"/>
+      <c r="M206" s="95"/>
       <c r="N206" s="89"/>
       <c r="O206" s="89"/>
       <c r="P206" s="89"/>
@@ -13053,10 +13206,10 @@
       <c r="G207" s="89"/>
       <c r="H207" s="89"/>
       <c r="I207" s="89"/>
-      <c r="J207" s="91"/>
+      <c r="J207" s="93"/>
       <c r="K207" s="89"/>
       <c r="L207" s="89"/>
-      <c r="M207" s="93"/>
+      <c r="M207" s="95"/>
       <c r="N207" s="89"/>
       <c r="O207" s="89"/>
       <c r="P207" s="89"/>
@@ -13089,10 +13242,10 @@
       <c r="G208" s="89"/>
       <c r="H208" s="89"/>
       <c r="I208" s="89"/>
-      <c r="J208" s="91"/>
+      <c r="J208" s="93"/>
       <c r="K208" s="89"/>
       <c r="L208" s="89"/>
-      <c r="M208" s="93"/>
+      <c r="M208" s="95"/>
       <c r="N208" s="89"/>
       <c r="O208" s="89"/>
       <c r="P208" s="89"/>
@@ -13125,10 +13278,10 @@
       <c r="G209" s="89"/>
       <c r="H209" s="89"/>
       <c r="I209" s="89"/>
-      <c r="J209" s="91"/>
+      <c r="J209" s="93"/>
       <c r="K209" s="89"/>
       <c r="L209" s="89"/>
-      <c r="M209" s="93"/>
+      <c r="M209" s="95"/>
       <c r="N209" s="89"/>
       <c r="O209" s="89"/>
       <c r="P209" s="89"/>
